--- a/实验室打卡记录汇总-20191226.xlsx
+++ b/实验室打卡记录汇总-20191226.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B2" s="7" t="n">
         <v>43801</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>43801.3744212963</v>
+        <v>43801.34871527777</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>43801.75366898148</v>
+        <v>43801.80203703705</v>
       </c>
       <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="inlineStr"/>
@@ -477,23 +477,23 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B3" s="7" t="n">
         <v>43802</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>43802.37891203703</v>
+        <v>43802.35159722222</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>43802.7549074074</v>
+        <v>43802.74762731481</v>
       </c>
       <c r="E3" s="6" t="inlineStr"/>
       <c r="F3" s="6" t="inlineStr"/>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>12/03-09:05</t>
+          <t>12/03-17:56</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr"/>
@@ -501,49 +501,39 @@
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B4" s="7" t="n">
         <v>43803</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>43803.75145833333</v>
+        <v>43803.34958333334</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>43803.75145833333</v>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>120</v>
-      </c>
+        <v>43803.75158564815</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr"/>
       <c r="G4" s="6" t="inlineStr"/>
       <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B5" s="7" t="n">
         <v>43804</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>43804.37355324074</v>
+        <v>43804.35112268518</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>43804.79738425926</v>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43804.75494212963</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -551,47 +541,45 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B6" s="7" t="n">
         <v>43805</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>43805.37297453704</v>
+        <v>43805.35119212963</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>43805.79260416667</v>
+        <v>43805.70723379631</v>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr"/>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B7" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>43808.3715625</v>
+        <v>43808.35349537037</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>43808.75528935185</v>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43808.80347222222</v>
+      </c>
+      <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
@@ -599,23 +587,19 @@
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B8" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>43809.37321759259</v>
+        <v>43809.34951388889</v>
       </c>
       <c r="D8" s="8" t="n">
-        <v>43809.75447916668</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43809.75335648148</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -623,47 +607,45 @@
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B9" s="7" t="n">
         <v>43810</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>43810.37378472222</v>
+        <v>43810.34931712963</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>43810.7533912037</v>
+        <v>43810.56071759259</v>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr"/>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3.5</v>
+      </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B10" s="7" t="n">
         <v>43811</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>43811.36670138889</v>
+        <v>43811.34969907408</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>43811.36670138889</v>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43811.75025462963</v>
+      </c>
+      <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -671,23 +653,19 @@
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B11" s="7" t="n">
         <v>43812</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>43812.37445601852</v>
+        <v>43812.34890046297</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>43812.75403935185</v>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43812.75407407407</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -695,49 +673,39 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B12" s="7" t="n">
         <v>43815</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>43815.37619212963</v>
+        <v>43815.35104166667</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>43815.37619212963</v>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>16</v>
-      </c>
+        <v>43815.80630787037</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>43815.37619212963</v>
+        <v>43816.35413194444</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>43815.37619212963</v>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43816.75722222222</v>
+      </c>
+      <c r="E13" s="6" t="inlineStr"/>
       <c r="F13" s="6" t="inlineStr"/>
       <c r="G13" s="6" t="inlineStr"/>
       <c r="H13" s="6" t="inlineStr"/>
@@ -745,23 +713,19 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>43816.37528935185</v>
+        <v>43817.35103009259</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>43816.37528935185</v>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+        <v>43817.76902777778</v>
+      </c>
+      <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -769,23 +733,19 @@
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>43816</v>
+        <v>43818</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>43816.37528935185</v>
+        <v>43818.35175925926</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>43816.37528935185</v>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43818.75493055556</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -793,19 +753,19 @@
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>43817</v>
-      </c>
-      <c r="C16" s="8" t="inlineStr"/>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43819</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>43819.35348379629</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>43819.75317129631</v>
+      </c>
+      <c r="E16" s="6" t="inlineStr"/>
       <c r="F16" s="6" t="inlineStr"/>
       <c r="G16" s="6" t="inlineStr"/>
       <c r="H16" s="6" t="inlineStr"/>
@@ -813,49 +773,39 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B17" s="7" t="n">
-        <v>43818</v>
+        <v>43822</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>43818.37430555555</v>
+        <v>43822.35431712963</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>43818.37430555555</v>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>漏打卡</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>43822.7525</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
-        <v>43818</v>
+        <v>43823</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>43818.37430555555</v>
+        <v>43823.35222222221</v>
       </c>
       <c r="D18" s="8" t="n">
-        <v>43818.37430555555</v>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43823.7546875</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -863,41 +813,39 @@
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B19" s="7" t="n">
-        <v>43819</v>
-      </c>
-      <c r="C19" s="8" t="inlineStr"/>
-      <c r="D19" s="8" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>8</v>
-      </c>
+        <v>43824</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>43824.353125</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>43824.75233796295</v>
+      </c>
+      <c r="E19" s="6" t="inlineStr"/>
+      <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>凌萍</t>
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>43819</v>
-      </c>
-      <c r="C20" s="8" t="inlineStr"/>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43825</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>43825.35358796296</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>43825.75261574074</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -905,19 +853,19 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>43822</v>
-      </c>
-      <c r="C21" s="8" t="inlineStr"/>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43801</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>43801.37393518518</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>43801.96861111111</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -925,45 +873,39 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>43822</v>
-      </c>
-      <c r="C22" s="8" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>8</v>
-      </c>
+        <v>43802</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>43802.35247685185</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>43802.76584490741</v>
+      </c>
+      <c r="E22" s="6" t="inlineStr"/>
+      <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>43823</v>
+        <v>43803</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>43823.37278935185</v>
+        <v>43803.32261574074</v>
       </c>
       <c r="D23" s="8" t="n">
-        <v>43823.75326388889</v>
-      </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>43803.75204861111</v>
+      </c>
+      <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -971,41 +913,39 @@
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>43824</v>
-      </c>
-      <c r="C24" s="8" t="n">
-        <v>43824.48027777778</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>43824.76012731482</v>
-      </c>
-      <c r="E24" s="6" t="inlineStr"/>
-      <c r="F24" s="6" t="inlineStr"/>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>12/25-11:31</t>
-        </is>
-      </c>
+        <v>43804</v>
+      </c>
+      <c r="C24" s="8" t="inlineStr"/>
+      <c r="D24" s="8" t="inlineStr"/>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>其他情况</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>张云璞</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>43825</v>
+        <v>43805</v>
       </c>
       <c r="C25" s="8" t="n">
-        <v>43825.37484953704</v>
+        <v>43805.35737268518</v>
       </c>
       <c r="D25" s="8" t="n">
-        <v>43825.75460648148</v>
+        <v>43805.8378125</v>
       </c>
       <c r="E25" s="6" t="inlineStr"/>
       <c r="F25" s="6" t="inlineStr"/>
@@ -1015,17 +955,17 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>43801</v>
+        <v>43808</v>
       </c>
       <c r="C26" s="8" t="n">
-        <v>43801.35618055556</v>
+        <v>43808.33998842593</v>
       </c>
       <c r="D26" s="8" t="n">
-        <v>43801.75381944444</v>
+        <v>43808.75034722222</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
@@ -1035,17 +975,17 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>43802</v>
+        <v>43809</v>
       </c>
       <c r="C27" s="8" t="n">
-        <v>43802.34444444445</v>
+        <v>43809.35684027777</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>43802.75974537037</v>
+        <v>43809.81947916667</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
@@ -1055,25 +995,21 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>43803</v>
-      </c>
-      <c r="C28" s="8" t="n">
-        <v>43803.33891203703</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>43803.64987268519</v>
-      </c>
+        <v>43810</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr"/>
+      <c r="D28" s="8" t="inlineStr"/>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>因公外出</t>
         </is>
       </c>
       <c r="F28" s="6" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G28" s="6" t="inlineStr"/>
       <c r="H28" s="6" t="inlineStr"/>
@@ -1081,19 +1017,19 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>43804</v>
-      </c>
-      <c r="C29" s="8" t="n">
-        <v>43804.3331712963</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>43804.7912037037</v>
-      </c>
-      <c r="E29" s="6" t="inlineStr"/>
+        <v>43811</v>
+      </c>
+      <c r="C29" s="8" t="inlineStr"/>
+      <c r="D29" s="8" t="inlineStr"/>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F29" s="6" t="inlineStr"/>
       <c r="G29" s="6" t="inlineStr"/>
       <c r="H29" s="6" t="inlineStr"/>
@@ -1101,19 +1037,19 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B30" s="7" t="n">
-        <v>43805</v>
-      </c>
-      <c r="C30" s="8" t="n">
-        <v>43805.33012731482</v>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>43805.79952546295</v>
-      </c>
-      <c r="E30" s="6" t="inlineStr"/>
+        <v>43812</v>
+      </c>
+      <c r="C30" s="8" t="inlineStr"/>
+      <c r="D30" s="8" t="inlineStr"/>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
@@ -1121,19 +1057,19 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B31" s="7" t="n">
-        <v>43808</v>
-      </c>
-      <c r="C31" s="8" t="n">
-        <v>43808.33778935186</v>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>43808.75393518519</v>
-      </c>
-      <c r="E31" s="6" t="inlineStr"/>
+        <v>43815</v>
+      </c>
+      <c r="C31" s="8" t="inlineStr"/>
+      <c r="D31" s="8" t="inlineStr"/>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
@@ -1141,19 +1077,19 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B32" s="7" t="n">
-        <v>43809</v>
-      </c>
-      <c r="C32" s="8" t="n">
-        <v>43809.33797453704</v>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>43809.75466435185</v>
-      </c>
-      <c r="E32" s="6" t="inlineStr"/>
+        <v>43816</v>
+      </c>
+      <c r="C32" s="8" t="inlineStr"/>
+      <c r="D32" s="8" t="inlineStr"/>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
@@ -1161,65 +1097,65 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B33" s="7" t="n">
-        <v>43810</v>
-      </c>
-      <c r="C33" s="8" t="n">
-        <v>43810.3591087963</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>43810.75234953704</v>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>4</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr"/>
+      <c r="D33" s="8" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
+      <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr"/>
+      <c r="H33" s="6" t="inlineStr">
+        <is>
+          <t>12/18全天卡</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B34" s="7" t="n">
-        <v>43811</v>
-      </c>
-      <c r="C34" s="8" t="n">
-        <v>43811.34798611111</v>
-      </c>
-      <c r="D34" s="8" t="n">
-        <v>43811.75576388889</v>
-      </c>
-      <c r="E34" s="6" t="inlineStr"/>
-      <c r="F34" s="6" t="inlineStr"/>
+        <v>43818</v>
+      </c>
+      <c r="C34" s="8" t="inlineStr"/>
+      <c r="D34" s="8" t="inlineStr"/>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="G34" s="6" t="inlineStr"/>
       <c r="H34" s="6" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B35" s="7" t="n">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="C35" s="8" t="n">
-        <v>43812.34737268519</v>
+        <v>43819.1452199074</v>
       </c>
       <c r="D35" s="8" t="n">
-        <v>43812.76349537037</v>
-      </c>
-      <c r="E35" s="6" t="inlineStr"/>
+        <v>43819.1452199074</v>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F35" s="6" t="inlineStr"/>
       <c r="G35" s="6" t="inlineStr"/>
       <c r="H35" s="6" t="inlineStr"/>
@@ -1227,103 +1163,101 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B36" s="7" t="n">
-        <v>43815</v>
+        <v>43822</v>
       </c>
       <c r="C36" s="8" t="n">
-        <v>43815.35982638889</v>
+        <v>43822.31896990741</v>
       </c>
       <c r="D36" s="8" t="n">
-        <v>43815.75743055555</v>
-      </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F36" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6" t="inlineStr"/>
+        <v>43822.67408564815</v>
+      </c>
+      <c r="E36" s="6" t="inlineStr"/>
+      <c r="F36" s="6" t="inlineStr"/>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>12/23-16:10</t>
+        </is>
+      </c>
       <c r="H36" s="6" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B37" s="7" t="n">
-        <v>43816</v>
-      </c>
-      <c r="C37" s="8" t="n">
-        <v>43816.33712962963</v>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v>43816.7668287037</v>
-      </c>
+        <v>43823</v>
+      </c>
+      <c r="C37" s="8" t="inlineStr"/>
+      <c r="D37" s="8" t="inlineStr"/>
       <c r="E37" s="6" t="inlineStr"/>
       <c r="F37" s="6" t="inlineStr"/>
       <c r="G37" s="6" t="inlineStr"/>
-      <c r="H37" s="6" t="inlineStr"/>
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t>12/24全天卡</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B38" s="7" t="n">
-        <v>43817</v>
-      </c>
-      <c r="C38" s="8" t="n">
-        <v>43817.34475694445</v>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v>43817.76446759259</v>
-      </c>
+        <v>43824</v>
+      </c>
+      <c r="C38" s="8" t="inlineStr"/>
+      <c r="D38" s="8" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
-      <c r="H38" s="6" t="inlineStr"/>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t>12/25全天卡</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>常海峰</t>
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>43818</v>
-      </c>
-      <c r="C39" s="8" t="n">
-        <v>43818.3459375</v>
-      </c>
-      <c r="D39" s="8" t="n">
-        <v>43818.75657407408</v>
-      </c>
+        <v>43825</v>
+      </c>
+      <c r="C39" s="8" t="inlineStr"/>
+      <c r="D39" s="8" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t>12/26全天卡</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B40" s="7" t="n">
-        <v>43819</v>
+        <v>43801</v>
       </c>
       <c r="C40" s="8" t="n">
-        <v>43819.32675925926</v>
+        <v>43801.3744212963</v>
       </c>
       <c r="D40" s="8" t="n">
-        <v>43819.75900462963</v>
+        <v>43801.75366898148</v>
       </c>
       <c r="E40" s="6" t="inlineStr"/>
       <c r="F40" s="6" t="inlineStr"/>
@@ -1333,59 +1267,73 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B41" s="7" t="n">
-        <v>43822</v>
+        <v>43802</v>
       </c>
       <c r="C41" s="8" t="n">
-        <v>43822.36032407408</v>
+        <v>43802.37891203703</v>
       </c>
       <c r="D41" s="8" t="n">
-        <v>43822.75508101852</v>
+        <v>43802.7549074074</v>
       </c>
       <c r="E41" s="6" t="inlineStr"/>
       <c r="F41" s="6" t="inlineStr"/>
-      <c r="G41" s="6" t="inlineStr"/>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>12/03-09:05</t>
+        </is>
+      </c>
       <c r="H41" s="6" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>43823</v>
+        <v>43803</v>
       </c>
       <c r="C42" s="8" t="n">
-        <v>43823.3515625</v>
+        <v>43803.75145833333</v>
       </c>
       <c r="D42" s="8" t="n">
-        <v>43823.7613425926</v>
-      </c>
-      <c r="E42" s="6" t="inlineStr"/>
-      <c r="F42" s="6" t="inlineStr"/>
+        <v>43803.75145833333</v>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>120</v>
+      </c>
       <c r="G42" s="6" t="inlineStr"/>
       <c r="H42" s="6" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B43" s="7" t="n">
-        <v>43824</v>
+        <v>43804</v>
       </c>
       <c r="C43" s="8" t="n">
-        <v>43824.35398148148</v>
+        <v>43804.37355324074</v>
       </c>
       <c r="D43" s="8" t="n">
-        <v>43824.75341435185</v>
-      </c>
-      <c r="E43" s="6" t="inlineStr"/>
+        <v>43804.79738425926</v>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F43" s="6" t="inlineStr"/>
       <c r="G43" s="6" t="inlineStr"/>
       <c r="H43" s="6" t="inlineStr"/>
@@ -1393,19 +1341,23 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>郑梅云</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B44" s="7" t="n">
-        <v>43825</v>
+        <v>43805</v>
       </c>
       <c r="C44" s="8" t="n">
-        <v>43825.34369212963</v>
+        <v>43805.37297453704</v>
       </c>
       <c r="D44" s="8" t="n">
-        <v>43825.87165509259</v>
-      </c>
-      <c r="E44" s="6" t="inlineStr"/>
+        <v>43805.79260416667</v>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
@@ -1413,39 +1365,45 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B45" s="7" t="n">
-        <v>43801</v>
-      </c>
-      <c r="C45" s="8" t="inlineStr"/>
-      <c r="D45" s="8" t="inlineStr"/>
+        <v>43808</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>43808.3715625</v>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v>43808.75528935185</v>
+      </c>
       <c r="E45" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F45" s="6" t="n">
-        <v>40</v>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B46" s="7" t="n">
-        <v>43802</v>
-      </c>
-      <c r="C46" s="8" t="inlineStr"/>
-      <c r="D46" s="8" t="inlineStr"/>
+        <v>43809</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>43809.37321759259</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>43809.75447916668</v>
+      </c>
       <c r="E46" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" s="6" t="inlineStr"/>
@@ -1455,17 +1413,21 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B47" s="7" t="n">
-        <v>43803</v>
-      </c>
-      <c r="C47" s="8" t="inlineStr"/>
-      <c r="D47" s="8" t="inlineStr"/>
+        <v>43810</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>43810.37378472222</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>43810.7533912037</v>
+      </c>
       <c r="E47" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F47" s="6" t="inlineStr"/>
@@ -1475,17 +1437,21 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B48" s="7" t="n">
-        <v>43804</v>
-      </c>
-      <c r="C48" s="8" t="inlineStr"/>
-      <c r="D48" s="8" t="inlineStr"/>
+        <v>43811</v>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>43811.36670138889</v>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>43811.36670138889</v>
+      </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F48" s="6" t="inlineStr"/>
@@ -1495,17 +1461,21 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B49" s="7" t="n">
-        <v>43805</v>
-      </c>
-      <c r="C49" s="8" t="inlineStr"/>
-      <c r="D49" s="8" t="inlineStr"/>
+        <v>43812</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>43812.37445601852</v>
+      </c>
+      <c r="D49" s="8" t="n">
+        <v>43812.75403935185</v>
+      </c>
       <c r="E49" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F49" s="6" t="inlineStr"/>
@@ -1515,17 +1485,17 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B50" s="7" t="n">
-        <v>43808</v>
+        <v>43815</v>
       </c>
       <c r="C50" s="8" t="n">
-        <v>43808.36690972222</v>
+        <v>43815.37619212963</v>
       </c>
       <c r="D50" s="8" t="n">
-        <v>43808.36690972222</v>
+        <v>43815.37619212963</v>
       </c>
       <c r="E50" s="6" t="inlineStr">
         <is>
@@ -1533,7 +1503,7 @@
         </is>
       </c>
       <c r="F50" s="6" t="n">
-        <v>3.5</v>
+        <v>16</v>
       </c>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
@@ -1541,40 +1511,42 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B51" s="7" t="n">
-        <v>43809</v>
+        <v>43815</v>
       </c>
       <c r="C51" s="8" t="n">
-        <v>43809.3684375</v>
+        <v>43815.37619212963</v>
       </c>
       <c r="D51" s="8" t="n">
-        <v>43809.3684375</v>
+        <v>43815.37619212963</v>
       </c>
       <c r="E51" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F51" s="6" t="n">
-        <v>10.5</v>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B52" s="7" t="n">
-        <v>43810</v>
-      </c>
-      <c r="C52" s="8" t="inlineStr"/>
-      <c r="D52" s="8" t="inlineStr"/>
+        <v>43816</v>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>43816.37528935185</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>43816.37528935185</v>
+      </c>
       <c r="E52" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
@@ -1587,73 +1559,69 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B53" s="7" t="n">
-        <v>43811</v>
+        <v>43816</v>
       </c>
       <c r="C53" s="8" t="n">
-        <v>43811.36010416667</v>
+        <v>43816.37528935185</v>
       </c>
       <c r="D53" s="8" t="n">
-        <v>43811.36010416667</v>
-      </c>
-      <c r="E53" s="6" t="inlineStr"/>
+        <v>43816.37528935185</v>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F53" s="6" t="inlineStr"/>
       <c r="G53" s="6" t="inlineStr"/>
-      <c r="H53" s="6" t="inlineStr">
-        <is>
-          <t>12/12下班卡</t>
-        </is>
-      </c>
+      <c r="H53" s="6" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B54" s="7" t="n">
-        <v>43812</v>
-      </c>
-      <c r="C54" s="8" t="n">
-        <v>43812.77957175926</v>
-      </c>
-      <c r="D54" s="8" t="n">
-        <v>43812.77957175926</v>
-      </c>
-      <c r="E54" s="6" t="inlineStr"/>
+        <v>43817</v>
+      </c>
+      <c r="C54" s="8" t="inlineStr"/>
+      <c r="D54" s="8" t="inlineStr"/>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F54" s="6" t="inlineStr"/>
       <c r="G54" s="6" t="inlineStr"/>
-      <c r="H54" s="6" t="inlineStr">
-        <is>
-          <t>12/13上班卡</t>
-        </is>
-      </c>
+      <c r="H54" s="6" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B55" s="7" t="n">
-        <v>43815</v>
+        <v>43818</v>
       </c>
       <c r="C55" s="8" t="n">
-        <v>43815.79726851852</v>
+        <v>43818.37430555555</v>
       </c>
       <c r="D55" s="8" t="n">
-        <v>43815.79726851852</v>
+        <v>43818.37430555555</v>
       </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
+          <t>漏打卡</t>
         </is>
       </c>
       <c r="F55" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="6" t="inlineStr"/>
       <c r="H55" s="6" t="inlineStr"/>
@@ -1661,19 +1629,23 @@
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B56" s="7" t="n">
-        <v>43816</v>
+        <v>43818</v>
       </c>
       <c r="C56" s="8" t="n">
-        <v>43816.3671875</v>
+        <v>43818.37430555555</v>
       </c>
       <c r="D56" s="8" t="n">
-        <v>43816.75938657407</v>
-      </c>
-      <c r="E56" s="6" t="inlineStr"/>
+        <v>43818.37430555555</v>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F56" s="6" t="inlineStr"/>
       <c r="G56" s="6" t="inlineStr"/>
       <c r="H56" s="6" t="inlineStr"/>
@@ -1681,25 +1653,21 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B57" s="7" t="n">
-        <v>43817</v>
-      </c>
-      <c r="C57" s="8" t="n">
-        <v>43817.36559027778</v>
-      </c>
-      <c r="D57" s="8" t="n">
-        <v>43817.36559027778</v>
-      </c>
+        <v>43819</v>
+      </c>
+      <c r="C57" s="8" t="inlineStr"/>
+      <c r="D57" s="8" t="inlineStr"/>
       <c r="E57" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
         </is>
       </c>
       <c r="F57" s="6" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="G57" s="6" t="inlineStr"/>
       <c r="H57" s="6" t="inlineStr"/>
@@ -1707,19 +1675,19 @@
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B58" s="7" t="n">
-        <v>43818</v>
-      </c>
-      <c r="C58" s="8" t="n">
-        <v>43818.36766203704</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>43818.75313657407</v>
-      </c>
-      <c r="E58" s="6" t="inlineStr"/>
+        <v>43819</v>
+      </c>
+      <c r="C58" s="8" t="inlineStr"/>
+      <c r="D58" s="8" t="inlineStr"/>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F58" s="6" t="inlineStr"/>
       <c r="G58" s="6" t="inlineStr"/>
       <c r="H58" s="6" t="inlineStr"/>
@@ -1727,19 +1695,19 @@
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B59" s="7" t="n">
-        <v>43819</v>
-      </c>
-      <c r="C59" s="8" t="n">
-        <v>43819.3650462963</v>
-      </c>
-      <c r="D59" s="8" t="n">
-        <v>43819.80113425926</v>
-      </c>
-      <c r="E59" s="6" t="inlineStr"/>
+        <v>43822</v>
+      </c>
+      <c r="C59" s="8" t="inlineStr"/>
+      <c r="D59" s="8" t="inlineStr"/>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F59" s="6" t="inlineStr"/>
       <c r="G59" s="6" t="inlineStr"/>
       <c r="H59" s="6" t="inlineStr"/>
@@ -1747,39 +1715,45 @@
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B60" s="7" t="n">
         <v>43822</v>
       </c>
-      <c r="C60" s="8" t="n">
-        <v>43822.37287037037</v>
-      </c>
-      <c r="D60" s="8" t="n">
-        <v>43822.78616898148</v>
-      </c>
-      <c r="E60" s="6" t="inlineStr"/>
-      <c r="F60" s="6" t="inlineStr"/>
+      <c r="C60" s="8" t="inlineStr"/>
+      <c r="D60" s="8" t="inlineStr"/>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G60" s="6" t="inlineStr"/>
       <c r="H60" s="6" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B61" s="7" t="n">
         <v>43823</v>
       </c>
       <c r="C61" s="8" t="n">
-        <v>43823.36881944445</v>
+        <v>43823.37278935185</v>
       </c>
       <c r="D61" s="8" t="n">
-        <v>43823.76533564815</v>
-      </c>
-      <c r="E61" s="6" t="inlineStr"/>
+        <v>43823.75326388889</v>
+      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F61" s="6" t="inlineStr"/>
       <c r="G61" s="6" t="inlineStr"/>
       <c r="H61" s="6" t="inlineStr"/>
@@ -1787,97 +1761,111 @@
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B62" s="7" t="n">
         <v>43824</v>
       </c>
       <c r="C62" s="8" t="n">
-        <v>43824.36384259259</v>
+        <v>43824.48027777778</v>
       </c>
       <c r="D62" s="8" t="n">
-        <v>43824.8079050926</v>
+        <v>43824.76012731482</v>
       </c>
       <c r="E62" s="6" t="inlineStr"/>
       <c r="F62" s="6" t="inlineStr"/>
-      <c r="G62" s="6" t="inlineStr"/>
+      <c r="G62" s="6" t="inlineStr">
+        <is>
+          <t>12/25-11:31</t>
+        </is>
+      </c>
       <c r="H62" s="6" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>马立新</t>
+          <t>张云璞</t>
         </is>
       </c>
       <c r="B63" s="7" t="n">
         <v>43825</v>
       </c>
-      <c r="C63" s="8" t="inlineStr"/>
-      <c r="D63" s="8" t="inlineStr"/>
+      <c r="C63" s="8" t="n">
+        <v>43825.37484953704</v>
+      </c>
+      <c r="D63" s="8" t="n">
+        <v>43825.75460648148</v>
+      </c>
       <c r="E63" s="6" t="inlineStr"/>
       <c r="F63" s="6" t="inlineStr"/>
       <c r="G63" s="6" t="inlineStr"/>
-      <c r="H63" s="6" t="inlineStr">
-        <is>
-          <t>12/26全天卡</t>
-        </is>
-      </c>
+      <c r="H63" s="6" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B64" s="7" t="n">
         <v>43801</v>
       </c>
       <c r="C64" s="8" t="n">
-        <v>43801.37393518518</v>
+        <v>43801.37679398148</v>
       </c>
       <c r="D64" s="8" t="n">
-        <v>43801.96861111111</v>
+        <v>43801.75186342592</v>
       </c>
       <c r="E64" s="6" t="inlineStr"/>
       <c r="F64" s="6" t="inlineStr"/>
-      <c r="G64" s="6" t="inlineStr"/>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>12/02-09:02</t>
+        </is>
+      </c>
       <c r="H64" s="6" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B65" s="7" t="n">
         <v>43802</v>
       </c>
       <c r="C65" s="8" t="n">
-        <v>43802.35247685185</v>
+        <v>43802.36199074074</v>
       </c>
       <c r="D65" s="8" t="n">
-        <v>43802.76584490741</v>
-      </c>
-      <c r="E65" s="6" t="inlineStr"/>
-      <c r="F65" s="6" t="inlineStr"/>
+        <v>43802.72923611111</v>
+      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" s="6" t="inlineStr"/>
       <c r="H65" s="6" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B66" s="7" t="n">
         <v>43803</v>
       </c>
       <c r="C66" s="8" t="n">
-        <v>43803.32261574074</v>
+        <v>43803.36438657406</v>
       </c>
       <c r="D66" s="8" t="n">
-        <v>43803.75204861111</v>
+        <v>43803.7500462963</v>
       </c>
       <c r="E66" s="6" t="inlineStr"/>
       <c r="F66" s="6" t="inlineStr"/>
@@ -1887,59 +1875,63 @@
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B67" s="7" t="n">
         <v>43804</v>
       </c>
-      <c r="C67" s="8" t="inlineStr"/>
-      <c r="D67" s="8" t="inlineStr"/>
-      <c r="E67" s="6" t="inlineStr">
-        <is>
-          <t>其他情况</t>
-        </is>
-      </c>
-      <c r="F67" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C67" s="8" t="n">
+        <v>43804.3612037037</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>43804.75817129629</v>
+      </c>
+      <c r="E67" s="6" t="inlineStr"/>
+      <c r="F67" s="6" t="inlineStr"/>
       <c r="G67" s="6" t="inlineStr"/>
       <c r="H67" s="6" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B68" s="7" t="n">
         <v>43805</v>
       </c>
       <c r="C68" s="8" t="n">
-        <v>43805.35737268518</v>
+        <v>43805.36613425926</v>
       </c>
       <c r="D68" s="8" t="n">
-        <v>43805.8378125</v>
-      </c>
-      <c r="E68" s="6" t="inlineStr"/>
-      <c r="F68" s="6" t="inlineStr"/>
+        <v>43805.62796296295</v>
+      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>2.5</v>
+      </c>
       <c r="G68" s="6" t="inlineStr"/>
       <c r="H68" s="6" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B69" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C69" s="8" t="n">
-        <v>43808.33998842593</v>
+        <v>43808.35853009259</v>
       </c>
       <c r="D69" s="8" t="n">
-        <v>43808.75034722222</v>
+        <v>43808.7504976852</v>
       </c>
       <c r="E69" s="6" t="inlineStr"/>
       <c r="F69" s="6" t="inlineStr"/>
@@ -1949,17 +1941,17 @@
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B70" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C70" s="8" t="n">
-        <v>43809.35684027777</v>
+        <v>43809.36400462963</v>
       </c>
       <c r="D70" s="8" t="n">
-        <v>43809.81947916667</v>
+        <v>43809.75016203704</v>
       </c>
       <c r="E70" s="6" t="inlineStr"/>
       <c r="F70" s="6" t="inlineStr"/>
@@ -1969,41 +1961,39 @@
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B71" s="7" t="n">
         <v>43810</v>
       </c>
-      <c r="C71" s="8" t="inlineStr"/>
-      <c r="D71" s="8" t="inlineStr"/>
-      <c r="E71" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F71" s="6" t="n">
-        <v>40</v>
-      </c>
+      <c r="C71" s="8" t="n">
+        <v>43810.36119212963</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>43810.75254629629</v>
+      </c>
+      <c r="E71" s="6" t="inlineStr"/>
+      <c r="F71" s="6" t="inlineStr"/>
       <c r="G71" s="6" t="inlineStr"/>
       <c r="H71" s="6" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B72" s="7" t="n">
         <v>43811</v>
       </c>
-      <c r="C72" s="8" t="inlineStr"/>
-      <c r="D72" s="8" t="inlineStr"/>
-      <c r="E72" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+      <c r="C72" s="8" t="n">
+        <v>43811.35776620371</v>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v>43811.75149305557</v>
+      </c>
+      <c r="E72" s="6" t="inlineStr"/>
       <c r="F72" s="6" t="inlineStr"/>
       <c r="G72" s="6" t="inlineStr"/>
       <c r="H72" s="6" t="inlineStr"/>
@@ -2011,19 +2001,19 @@
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B73" s="7" t="n">
         <v>43812</v>
       </c>
-      <c r="C73" s="8" t="inlineStr"/>
-      <c r="D73" s="8" t="inlineStr"/>
-      <c r="E73" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+      <c r="C73" s="8" t="n">
+        <v>43812.36409722222</v>
+      </c>
+      <c r="D73" s="8" t="n">
+        <v>43812.75347222222</v>
+      </c>
+      <c r="E73" s="6" t="inlineStr"/>
       <c r="F73" s="6" t="inlineStr"/>
       <c r="G73" s="6" t="inlineStr"/>
       <c r="H73" s="6" t="inlineStr"/>
@@ -2031,39 +2021,45 @@
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B74" s="7" t="n">
         <v>43815</v>
       </c>
-      <c r="C74" s="8" t="inlineStr"/>
-      <c r="D74" s="8" t="inlineStr"/>
+      <c r="C74" s="8" t="n">
+        <v>43815.63975694445</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>43815.75253472223</v>
+      </c>
       <c r="E74" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr"/>
+      <c r="F74" s="6" t="n">
+        <v>5.33</v>
+      </c>
       <c r="G74" s="6" t="inlineStr"/>
       <c r="H74" s="6" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B75" s="7" t="n">
         <v>43816</v>
       </c>
-      <c r="C75" s="8" t="inlineStr"/>
-      <c r="D75" s="8" t="inlineStr"/>
-      <c r="E75" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+      <c r="C75" s="8" t="n">
+        <v>43816.36207175926</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>43816.75369212963</v>
+      </c>
+      <c r="E75" s="6" t="inlineStr"/>
       <c r="F75" s="6" t="inlineStr"/>
       <c r="G75" s="6" t="inlineStr"/>
       <c r="H75" s="6" t="inlineStr"/>
@@ -2071,65 +2067,59 @@
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B76" s="7" t="n">
         <v>43817</v>
       </c>
-      <c r="C76" s="8" t="inlineStr"/>
-      <c r="D76" s="8" t="inlineStr"/>
+      <c r="C76" s="8" t="n">
+        <v>43817.36298611111</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>43817.75318287037</v>
+      </c>
       <c r="E76" s="6" t="inlineStr"/>
       <c r="F76" s="6" t="inlineStr"/>
       <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="inlineStr">
-        <is>
-          <t>12/18全天卡</t>
-        </is>
-      </c>
+      <c r="H76" s="6" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B77" s="7" t="n">
         <v>43818</v>
       </c>
-      <c r="C77" s="8" t="inlineStr"/>
-      <c r="D77" s="8" t="inlineStr"/>
-      <c r="E77" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F77" s="6" t="n">
-        <v>16</v>
-      </c>
+      <c r="C77" s="8" t="n">
+        <v>43818.36386574074</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>43818.75262731482</v>
+      </c>
+      <c r="E77" s="6" t="inlineStr"/>
+      <c r="F77" s="6" t="inlineStr"/>
       <c r="G77" s="6" t="inlineStr"/>
       <c r="H77" s="6" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B78" s="7" t="n">
         <v>43819</v>
       </c>
       <c r="C78" s="8" t="n">
-        <v>43819.1452199074</v>
+        <v>43819.35944444445</v>
       </c>
       <c r="D78" s="8" t="n">
-        <v>43819.1452199074</v>
-      </c>
-      <c r="E78" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+        <v>43819.75306712963</v>
+      </c>
+      <c r="E78" s="6" t="inlineStr"/>
       <c r="F78" s="6" t="inlineStr"/>
       <c r="G78" s="6" t="inlineStr"/>
       <c r="H78" s="6" t="inlineStr"/>
@@ -2137,71 +2127,73 @@
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B79" s="7" t="n">
         <v>43822</v>
       </c>
       <c r="C79" s="8" t="n">
-        <v>43822.31896990741</v>
+        <v>43822.36327546297</v>
       </c>
       <c r="D79" s="8" t="n">
-        <v>43822.67408564815</v>
+        <v>43822.75484953705</v>
       </c>
       <c r="E79" s="6" t="inlineStr"/>
       <c r="F79" s="6" t="inlineStr"/>
-      <c r="G79" s="6" t="inlineStr">
-        <is>
-          <t>12/23-16:10</t>
-        </is>
-      </c>
+      <c r="G79" s="6" t="inlineStr"/>
       <c r="H79" s="6" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B80" s="7" t="n">
         <v>43823</v>
       </c>
-      <c r="C80" s="8" t="inlineStr"/>
-      <c r="D80" s="8" t="inlineStr"/>
+      <c r="C80" s="8" t="n">
+        <v>43823.36633101852</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>43823.8269212963</v>
+      </c>
       <c r="E80" s="6" t="inlineStr"/>
       <c r="F80" s="6" t="inlineStr"/>
       <c r="G80" s="6" t="inlineStr"/>
-      <c r="H80" s="6" t="inlineStr">
-        <is>
-          <t>12/24全天卡</t>
-        </is>
-      </c>
+      <c r="H80" s="6" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B81" s="7" t="n">
         <v>43824</v>
       </c>
-      <c r="C81" s="8" t="inlineStr"/>
-      <c r="D81" s="8" t="inlineStr"/>
-      <c r="E81" s="6" t="inlineStr"/>
-      <c r="F81" s="6" t="inlineStr"/>
+      <c r="C81" s="8" t="n">
+        <v>43824.41489583333</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>43824.68850694445</v>
+      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="G81" s="6" t="inlineStr"/>
-      <c r="H81" s="6" t="inlineStr">
-        <is>
-          <t>12/25全天卡</t>
-        </is>
-      </c>
+      <c r="H81" s="6" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>常海峰</t>
+          <t>张善海</t>
         </is>
       </c>
       <c r="B82" s="7" t="n">
@@ -2221,17 +2213,17 @@
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B83" s="7" t="n">
         <v>43801</v>
       </c>
       <c r="C83" s="8" t="n">
-        <v>43801.37412037037</v>
+        <v>43801.366875</v>
       </c>
       <c r="D83" s="8" t="n">
-        <v>43801.77974537037</v>
+        <v>43801.76387731481</v>
       </c>
       <c r="E83" s="6" t="inlineStr"/>
       <c r="F83" s="6" t="inlineStr"/>
@@ -2241,41 +2233,37 @@
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B84" s="7" t="n">
         <v>43802</v>
       </c>
       <c r="C84" s="8" t="n">
-        <v>43802.3677662037</v>
+        <v>43802.36495370371</v>
       </c>
       <c r="D84" s="8" t="n">
-        <v>43802.3677662037</v>
+        <v>43802.7540625</v>
       </c>
       <c r="E84" s="6" t="inlineStr"/>
       <c r="F84" s="6" t="inlineStr"/>
       <c r="G84" s="6" t="inlineStr"/>
-      <c r="H84" s="6" t="inlineStr">
-        <is>
-          <t>12/03下班卡</t>
-        </is>
-      </c>
+      <c r="H84" s="6" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B85" s="7" t="n">
         <v>43803</v>
       </c>
       <c r="C85" s="8" t="n">
-        <v>43803.36978009259</v>
+        <v>43803.35961805555</v>
       </c>
       <c r="D85" s="8" t="n">
-        <v>43803.7957523148</v>
+        <v>43803.76016203704</v>
       </c>
       <c r="E85" s="6" t="inlineStr"/>
       <c r="F85" s="6" t="inlineStr"/>
@@ -2285,17 +2273,17 @@
     <row r="86">
       <c r="A86" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B86" s="7" t="n">
         <v>43804</v>
       </c>
       <c r="C86" s="8" t="n">
-        <v>43804.37155092593</v>
+        <v>43804.36361111111</v>
       </c>
       <c r="D86" s="8" t="n">
-        <v>43804.77162037037</v>
+        <v>43804.77111111111</v>
       </c>
       <c r="E86" s="6" t="inlineStr"/>
       <c r="F86" s="6" t="inlineStr"/>
@@ -2305,17 +2293,17 @@
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B87" s="7" t="n">
         <v>43805</v>
       </c>
       <c r="C87" s="8" t="n">
-        <v>43805.37043981482</v>
+        <v>43805.3550925926</v>
       </c>
       <c r="D87" s="8" t="n">
-        <v>43805.7619675926</v>
+        <v>43805.75917824074</v>
       </c>
       <c r="E87" s="6" t="inlineStr"/>
       <c r="F87" s="6" t="inlineStr"/>
@@ -2325,17 +2313,17 @@
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B88" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C88" s="8" t="n">
-        <v>43808.37337962963</v>
+        <v>43808.34387731483</v>
       </c>
       <c r="D88" s="8" t="n">
-        <v>43808.75974537037</v>
+        <v>43808.75260416666</v>
       </c>
       <c r="E88" s="6" t="inlineStr"/>
       <c r="F88" s="6" t="inlineStr"/>
@@ -2345,17 +2333,17 @@
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B89" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C89" s="8" t="n">
-        <v>43809.37246527777</v>
+        <v>43809.36393518518</v>
       </c>
       <c r="D89" s="8" t="n">
-        <v>43809.78646990741</v>
+        <v>43809.754375</v>
       </c>
       <c r="E89" s="6" t="inlineStr"/>
       <c r="F89" s="6" t="inlineStr"/>
@@ -2365,17 +2353,17 @@
     <row r="90">
       <c r="A90" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B90" s="7" t="n">
         <v>43810</v>
       </c>
       <c r="C90" s="8" t="n">
-        <v>43810.36780092592</v>
+        <v>43810.36163194444</v>
       </c>
       <c r="D90" s="8" t="n">
-        <v>43810.75826388889</v>
+        <v>43810.75231481482</v>
       </c>
       <c r="E90" s="6" t="inlineStr"/>
       <c r="F90" s="6" t="inlineStr"/>
@@ -2385,17 +2373,17 @@
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B91" s="7" t="n">
         <v>43811</v>
       </c>
       <c r="C91" s="8" t="n">
-        <v>43811.37501157408</v>
+        <v>43811.35849537037</v>
       </c>
       <c r="D91" s="8" t="n">
-        <v>43811.78991898148</v>
+        <v>43811.75258101852</v>
       </c>
       <c r="E91" s="6" t="inlineStr"/>
       <c r="F91" s="6" t="inlineStr"/>
@@ -2405,109 +2393,111 @@
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B92" s="7" t="n">
         <v>43812</v>
       </c>
       <c r="C92" s="8" t="n">
-        <v>43812.37270833334</v>
+        <v>43812.34077546297</v>
       </c>
       <c r="D92" s="8" t="n">
-        <v>43812.84564814815</v>
-      </c>
-      <c r="E92" s="6" t="inlineStr"/>
-      <c r="F92" s="6" t="inlineStr"/>
+        <v>43812.48630787037</v>
+      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="G92" s="6" t="inlineStr"/>
       <c r="H92" s="6" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B93" s="7" t="n">
         <v>43815</v>
       </c>
       <c r="C93" s="8" t="n">
-        <v>43815.37446759259</v>
+        <v>43815.37622685185</v>
       </c>
       <c r="D93" s="8" t="n">
-        <v>43815.6846875</v>
-      </c>
-      <c r="E93" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F93" s="6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G93" s="6" t="inlineStr"/>
+        <v>43815.76060185185</v>
+      </c>
+      <c r="E93" s="6" t="inlineStr"/>
+      <c r="F93" s="6" t="inlineStr"/>
+      <c r="G93" s="6" t="inlineStr">
+        <is>
+          <t>12/16-09:01</t>
+        </is>
+      </c>
       <c r="H93" s="6" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B94" s="7" t="n">
         <v>43816</v>
       </c>
-      <c r="C94" s="8" t="inlineStr"/>
-      <c r="D94" s="8" t="inlineStr"/>
-      <c r="E94" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F94" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C94" s="8" t="n">
+        <v>43816.76849537037</v>
+      </c>
+      <c r="D94" s="8" t="n">
+        <v>43816.76849537037</v>
+      </c>
+      <c r="E94" s="6" t="inlineStr"/>
+      <c r="F94" s="6" t="inlineStr"/>
       <c r="G94" s="6" t="inlineStr"/>
-      <c r="H94" s="6" t="inlineStr"/>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>12/17上班卡</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B95" s="7" t="n">
         <v>43817</v>
       </c>
       <c r="C95" s="8" t="n">
-        <v>43817.37762731482</v>
+        <v>43817.37280092593</v>
       </c>
       <c r="D95" s="8" t="n">
-        <v>43817.83582175926</v>
+        <v>43817.76405092593</v>
       </c>
       <c r="E95" s="6" t="inlineStr"/>
       <c r="F95" s="6" t="inlineStr"/>
-      <c r="G95" s="6" t="inlineStr">
-        <is>
-          <t>12/18-09:03</t>
-        </is>
-      </c>
+      <c r="G95" s="6" t="inlineStr"/>
       <c r="H95" s="6" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B96" s="7" t="n">
         <v>43818</v>
       </c>
       <c r="C96" s="8" t="n">
-        <v>43818.36564814814</v>
+        <v>43818.36721064815</v>
       </c>
       <c r="D96" s="8" t="n">
-        <v>43818.86278935185</v>
+        <v>43818.75613425926</v>
       </c>
       <c r="E96" s="6" t="inlineStr"/>
       <c r="F96" s="6" t="inlineStr"/>
@@ -2517,17 +2507,17 @@
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B97" s="7" t="n">
         <v>43819</v>
       </c>
       <c r="C97" s="8" t="n">
-        <v>43819.30998842593</v>
+        <v>43819.36942129629</v>
       </c>
       <c r="D97" s="8" t="n">
-        <v>43819.81715277778</v>
+        <v>43819.75682870371</v>
       </c>
       <c r="E97" s="6" t="inlineStr"/>
       <c r="F97" s="6" t="inlineStr"/>
@@ -2537,17 +2527,17 @@
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B98" s="7" t="n">
         <v>43822</v>
       </c>
       <c r="C98" s="8" t="n">
-        <v>43822.34791666668</v>
+        <v>43822.35252314815</v>
       </c>
       <c r="D98" s="8" t="n">
-        <v>43822.90195601852</v>
+        <v>43822.75631944443</v>
       </c>
       <c r="E98" s="6" t="inlineStr"/>
       <c r="F98" s="6" t="inlineStr"/>
@@ -2557,37 +2547,43 @@
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B99" s="7" t="n">
         <v>43823</v>
       </c>
       <c r="C99" s="8" t="n">
-        <v>43823.37521990741</v>
+        <v>43823.48076388889</v>
       </c>
       <c r="D99" s="8" t="n">
-        <v>43823.76740740741</v>
-      </c>
-      <c r="E99" s="6" t="inlineStr"/>
-      <c r="F99" s="6" t="inlineStr"/>
+        <v>43823.77625</v>
+      </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G99" s="6" t="inlineStr"/>
       <c r="H99" s="6" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B100" s="7" t="n">
         <v>43824</v>
       </c>
       <c r="C100" s="8" t="n">
-        <v>43824.37266203705</v>
+        <v>43824.36711805555</v>
       </c>
       <c r="D100" s="8" t="n">
-        <v>43824.79655092592</v>
+        <v>43824.76081018519</v>
       </c>
       <c r="E100" s="6" t="inlineStr"/>
       <c r="F100" s="6" t="inlineStr"/>
@@ -2597,17 +2593,17 @@
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>荆蕾</t>
+          <t>张苏南</t>
         </is>
       </c>
       <c r="B101" s="7" t="n">
         <v>43825</v>
       </c>
       <c r="C101" s="8" t="n">
-        <v>43825.37175925926</v>
+        <v>43825.34438657408</v>
       </c>
       <c r="D101" s="8" t="n">
-        <v>43825.81773148148</v>
+        <v>43825.75741898148</v>
       </c>
       <c r="E101" s="6" t="inlineStr"/>
       <c r="F101" s="6" t="inlineStr"/>
@@ -2617,17 +2613,17 @@
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B102" s="7" t="n">
         <v>43801</v>
       </c>
       <c r="C102" s="8" t="n">
-        <v>43801.32386574074</v>
+        <v>43801.36495370371</v>
       </c>
       <c r="D102" s="8" t="n">
-        <v>43801.75006944445</v>
+        <v>43801.75015046296</v>
       </c>
       <c r="E102" s="6" t="inlineStr"/>
       <c r="F102" s="6" t="inlineStr"/>
@@ -2637,37 +2633,41 @@
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B103" s="7" t="n">
         <v>43802</v>
       </c>
       <c r="C103" s="8" t="n">
-        <v>43802.34033564815</v>
+        <v>43802.38166666667</v>
       </c>
       <c r="D103" s="8" t="n">
-        <v>43802.97971064815</v>
+        <v>43802.75424768519</v>
       </c>
       <c r="E103" s="6" t="inlineStr"/>
       <c r="F103" s="6" t="inlineStr"/>
-      <c r="G103" s="6" t="inlineStr"/>
+      <c r="G103" s="6" t="inlineStr">
+        <is>
+          <t>12/03-09:09</t>
+        </is>
+      </c>
       <c r="H103" s="6" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B104" s="7" t="n">
         <v>43803</v>
       </c>
       <c r="C104" s="8" t="n">
-        <v>43803.04864583333</v>
+        <v>43803.36512731481</v>
       </c>
       <c r="D104" s="8" t="n">
-        <v>43803.75015046296</v>
+        <v>43803.75098379629</v>
       </c>
       <c r="E104" s="6" t="inlineStr"/>
       <c r="F104" s="6" t="inlineStr"/>
@@ -2677,17 +2677,17 @@
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B105" s="7" t="n">
         <v>43804</v>
       </c>
       <c r="C105" s="8" t="n">
-        <v>43804.36040509259</v>
+        <v>43804.36328703703</v>
       </c>
       <c r="D105" s="8" t="n">
-        <v>43804.75021990741</v>
+        <v>43804.76431712963</v>
       </c>
       <c r="E105" s="6" t="inlineStr"/>
       <c r="F105" s="6" t="inlineStr"/>
@@ -2697,17 +2697,17 @@
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B106" s="7" t="n">
         <v>43805</v>
       </c>
       <c r="C106" s="8" t="n">
-        <v>43805.35685185185</v>
+        <v>43805.37085648148</v>
       </c>
       <c r="D106" s="8" t="n">
-        <v>43805.7500462963</v>
+        <v>43805.75912037037</v>
       </c>
       <c r="E106" s="6" t="inlineStr"/>
       <c r="F106" s="6" t="inlineStr"/>
@@ -2717,17 +2717,17 @@
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B107" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C107" s="8" t="n">
-        <v>43808.34168981481</v>
+        <v>43808.37039351852</v>
       </c>
       <c r="D107" s="8" t="n">
-        <v>43808.75010416667</v>
+        <v>43808.7959837963</v>
       </c>
       <c r="E107" s="6" t="inlineStr"/>
       <c r="F107" s="6" t="inlineStr"/>
@@ -2737,17 +2737,17 @@
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B108" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C108" s="8" t="n">
-        <v>43809.35768518518</v>
+        <v>43809.37458333333</v>
       </c>
       <c r="D108" s="8" t="n">
-        <v>43809.75005787037</v>
+        <v>43809.76013888889</v>
       </c>
       <c r="E108" s="6" t="inlineStr"/>
       <c r="F108" s="6" t="inlineStr"/>
@@ -2757,43 +2757,37 @@
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B109" s="7" t="n">
         <v>43810</v>
       </c>
       <c r="C109" s="8" t="n">
-        <v>43810.36109953704</v>
+        <v>43810.36393518518</v>
       </c>
       <c r="D109" s="8" t="n">
-        <v>43810.36109953704</v>
-      </c>
-      <c r="E109" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F109" s="6" t="n">
-        <v>3.5</v>
-      </c>
+        <v>43810.75030092592</v>
+      </c>
+      <c r="E109" s="6" t="inlineStr"/>
+      <c r="F109" s="6" t="inlineStr"/>
       <c r="G109" s="6" t="inlineStr"/>
       <c r="H109" s="6" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B110" s="7" t="n">
         <v>43811</v>
       </c>
       <c r="C110" s="8" t="n">
-        <v>43811.35855324074</v>
+        <v>43811.35395833333</v>
       </c>
       <c r="D110" s="8" t="n">
-        <v>43811.75017361111</v>
+        <v>43811.88101851852</v>
       </c>
       <c r="E110" s="6" t="inlineStr"/>
       <c r="F110" s="6" t="inlineStr"/>
@@ -2803,37 +2797,41 @@
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B111" s="7" t="n">
         <v>43812</v>
       </c>
       <c r="C111" s="8" t="n">
-        <v>43812.3599537037</v>
+        <v>43812.37596064815</v>
       </c>
       <c r="D111" s="8" t="n">
-        <v>43812.75215277778</v>
+        <v>43812.75643518518</v>
       </c>
       <c r="E111" s="6" t="inlineStr"/>
       <c r="F111" s="6" t="inlineStr"/>
-      <c r="G111" s="6" t="inlineStr"/>
+      <c r="G111" s="6" t="inlineStr">
+        <is>
+          <t>12/13-09:01</t>
+        </is>
+      </c>
       <c r="H111" s="6" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B112" s="7" t="n">
         <v>43815</v>
       </c>
       <c r="C112" s="8" t="n">
-        <v>43815.31975694445</v>
+        <v>43815.37376157408</v>
       </c>
       <c r="D112" s="8" t="n">
-        <v>43815.75186342592</v>
+        <v>43815.7530787037</v>
       </c>
       <c r="E112" s="6" t="inlineStr"/>
       <c r="F112" s="6" t="inlineStr"/>
@@ -2843,113 +2841,101 @@
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B113" s="7" t="n">
         <v>43816</v>
       </c>
       <c r="C113" s="8" t="n">
-        <v>43816.33692129629</v>
+        <v>43816.36599537037</v>
       </c>
       <c r="D113" s="8" t="n">
-        <v>43816.33692129629</v>
-      </c>
-      <c r="E113" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F113" s="6" t="n">
-        <v>1.5</v>
-      </c>
+        <v>43816.78803240741</v>
+      </c>
+      <c r="E113" s="6" t="inlineStr"/>
+      <c r="F113" s="6" t="inlineStr"/>
       <c r="G113" s="6" t="inlineStr"/>
       <c r="H113" s="6" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B114" s="7" t="n">
         <v>43817</v>
       </c>
       <c r="C114" s="8" t="n">
-        <v>43817.75324074074</v>
+        <v>43817.37417824074</v>
       </c>
       <c r="D114" s="8" t="n">
-        <v>43817.75324074074</v>
-      </c>
-      <c r="E114" s="6" t="inlineStr">
-        <is>
-          <t>漏打卡</t>
-        </is>
-      </c>
-      <c r="F114" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>43817.97725694445</v>
+      </c>
+      <c r="E114" s="6" t="inlineStr"/>
+      <c r="F114" s="6" t="inlineStr"/>
       <c r="G114" s="6" t="inlineStr"/>
       <c r="H114" s="6" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B115" s="7" t="n">
         <v>43818</v>
       </c>
-      <c r="C115" s="8" t="inlineStr"/>
-      <c r="D115" s="8" t="inlineStr"/>
-      <c r="E115" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F115" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C115" s="8" t="n">
+        <v>43818.36221064815</v>
+      </c>
+      <c r="D115" s="8" t="n">
+        <v>43818.75118055557</v>
+      </c>
+      <c r="E115" s="6" t="inlineStr"/>
+      <c r="F115" s="6" t="inlineStr"/>
       <c r="G115" s="6" t="inlineStr"/>
       <c r="H115" s="6" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B116" s="7" t="n">
         <v>43819</v>
       </c>
-      <c r="C116" s="8" t="inlineStr"/>
-      <c r="D116" s="8" t="inlineStr"/>
-      <c r="E116" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F116" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G116" s="6" t="inlineStr"/>
+      <c r="C116" s="8" t="n">
+        <v>43819.37582175926</v>
+      </c>
+      <c r="D116" s="8" t="n">
+        <v>43819.75145833333</v>
+      </c>
+      <c r="E116" s="6" t="inlineStr"/>
+      <c r="F116" s="6" t="inlineStr"/>
+      <c r="G116" s="6" t="inlineStr">
+        <is>
+          <t>12/20-09:01</t>
+        </is>
+      </c>
       <c r="H116" s="6" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B117" s="7" t="n">
         <v>43822</v>
       </c>
       <c r="C117" s="8" t="n">
-        <v>43822.37449074074</v>
+        <v>43822.36793981482</v>
       </c>
       <c r="D117" s="8" t="n">
-        <v>43822.7500462963</v>
+        <v>43822.75269675926</v>
       </c>
       <c r="E117" s="6" t="inlineStr"/>
       <c r="F117" s="6" t="inlineStr"/>
@@ -2959,63 +2945,63 @@
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B118" s="7" t="n">
         <v>43823</v>
       </c>
       <c r="C118" s="8" t="n">
-        <v>43823.69086805556</v>
+        <v>43823.36929398148</v>
       </c>
       <c r="D118" s="8" t="n">
-        <v>43823.75017361111</v>
-      </c>
-      <c r="E118" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F118" s="6" t="n">
-        <v>2</v>
-      </c>
+        <v>43823.78116898148</v>
+      </c>
+      <c r="E118" s="6" t="inlineStr"/>
+      <c r="F118" s="6" t="inlineStr"/>
       <c r="G118" s="6" t="inlineStr"/>
       <c r="H118" s="6" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B119" s="7" t="n">
         <v>43824</v>
       </c>
       <c r="C119" s="8" t="n">
-        <v>43824.364375</v>
+        <v>43824.75186342592</v>
       </c>
       <c r="D119" s="8" t="n">
-        <v>43824.75011574074</v>
-      </c>
-      <c r="E119" s="6" t="inlineStr"/>
-      <c r="F119" s="6" t="inlineStr"/>
+        <v>43824.75186342592</v>
+      </c>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="G119" s="6" t="inlineStr"/>
       <c r="H119" s="6" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>赵志强</t>
+          <t>温晓萍</t>
         </is>
       </c>
       <c r="B120" s="7" t="n">
         <v>43825</v>
       </c>
       <c r="C120" s="8" t="n">
-        <v>43825.34065972222</v>
+        <v>43825.36238425926</v>
       </c>
       <c r="D120" s="8" t="n">
-        <v>43825.75048611111</v>
+        <v>43825.75060185185</v>
       </c>
       <c r="E120" s="6" t="inlineStr"/>
       <c r="F120" s="6" t="inlineStr"/>
@@ -3025,17 +3011,17 @@
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B121" s="7" t="n">
         <v>43801</v>
       </c>
       <c r="C121" s="8" t="n">
-        <v>43801.35769675926</v>
+        <v>43801.35184027778</v>
       </c>
       <c r="D121" s="8" t="n">
-        <v>43801.77214120371</v>
+        <v>43801.75203703704</v>
       </c>
       <c r="E121" s="6" t="inlineStr"/>
       <c r="F121" s="6" t="inlineStr"/>
@@ -3045,7 +3031,7 @@
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B122" s="7" t="n">
@@ -3055,11 +3041,11 @@
       <c r="D122" s="8" t="inlineStr"/>
       <c r="E122" s="6" t="inlineStr">
         <is>
-          <t>漏打卡</t>
+          <t>事假</t>
         </is>
       </c>
       <c r="F122" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G122" s="6" t="inlineStr"/>
       <c r="H122" s="6" t="inlineStr"/>
@@ -3067,85 +3053,83 @@
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B123" s="7" t="n">
-        <v>43802</v>
-      </c>
-      <c r="C123" s="8" t="inlineStr"/>
-      <c r="D123" s="8" t="inlineStr"/>
-      <c r="E123" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F123" s="6" t="n">
-        <v>1.5</v>
-      </c>
+        <v>43803</v>
+      </c>
+      <c r="C123" s="8" t="n">
+        <v>43803.34783564815</v>
+      </c>
+      <c r="D123" s="8" t="n">
+        <v>43803.75336805556</v>
+      </c>
+      <c r="E123" s="6" t="inlineStr"/>
+      <c r="F123" s="6" t="inlineStr"/>
       <c r="G123" s="6" t="inlineStr"/>
       <c r="H123" s="6" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B124" s="7" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C124" s="8" t="n">
-        <v>43803.36851851852</v>
+        <v>43804.35298611111</v>
       </c>
       <c r="D124" s="8" t="n">
-        <v>43803.36851851852</v>
-      </c>
-      <c r="E124" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F124" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>43804.76287037037</v>
+      </c>
+      <c r="E124" s="6" t="inlineStr"/>
+      <c r="F124" s="6" t="inlineStr"/>
       <c r="G124" s="6" t="inlineStr"/>
       <c r="H124" s="6" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B125" s="7" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C125" s="8" t="n">
-        <v>43804.36729166667</v>
+        <v>43805.35274305557</v>
       </c>
       <c r="D125" s="8" t="n">
-        <v>43804.76799768519</v>
-      </c>
-      <c r="E125" s="6" t="inlineStr"/>
-      <c r="F125" s="6" t="inlineStr"/>
+        <v>43805.35288194445</v>
+      </c>
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>漏打卡</t>
+        </is>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="G125" s="6" t="inlineStr"/>
       <c r="H125" s="6" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B126" s="7" t="n">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C126" s="8" t="n">
-        <v>43805.36752314815</v>
+        <v>43808.35090277779</v>
       </c>
       <c r="D126" s="8" t="n">
-        <v>43805.75908564815</v>
+        <v>43808.75255787037</v>
       </c>
       <c r="E126" s="6" t="inlineStr"/>
       <c r="F126" s="6" t="inlineStr"/>
@@ -3155,17 +3139,17 @@
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B127" s="7" t="n">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C127" s="8" t="n">
-        <v>43808.35534722222</v>
+        <v>43809.35299768519</v>
       </c>
       <c r="D127" s="8" t="n">
-        <v>43808.77069444444</v>
+        <v>43809.75832175926</v>
       </c>
       <c r="E127" s="6" t="inlineStr"/>
       <c r="F127" s="6" t="inlineStr"/>
@@ -3175,51 +3159,41 @@
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B128" s="7" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C128" s="8" t="n">
-        <v>43809.37784722223</v>
+        <v>43810.34561342592</v>
       </c>
       <c r="D128" s="8" t="n">
-        <v>43809.37784722223</v>
-      </c>
-      <c r="E128" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F128" s="6" t="n">
-        <v>4.25</v>
-      </c>
+        <v>43810.75204861111</v>
+      </c>
+      <c r="E128" s="6" t="inlineStr"/>
+      <c r="F128" s="6" t="inlineStr"/>
       <c r="G128" s="6" t="inlineStr"/>
       <c r="H128" s="6" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B129" s="7" t="n">
-        <v>43810</v>
-      </c>
-      <c r="C129" s="8" t="n">
-        <v>43810.37112268519</v>
-      </c>
-      <c r="D129" s="8" t="n">
-        <v>43810.37112268519</v>
-      </c>
+        <v>43811</v>
+      </c>
+      <c r="C129" s="8" t="inlineStr"/>
+      <c r="D129" s="8" t="inlineStr"/>
       <c r="E129" s="6" t="inlineStr">
         <is>
-          <t>因公外出</t>
+          <t>病假</t>
         </is>
       </c>
       <c r="F129" s="6" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="G129" s="6" t="inlineStr"/>
       <c r="H129" s="6" t="inlineStr"/>
@@ -3227,17 +3201,17 @@
     <row r="130">
       <c r="A130" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B130" s="7" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C130" s="8" t="n">
-        <v>43811.36390046297</v>
+        <v>43812.3565625</v>
       </c>
       <c r="D130" s="8" t="n">
-        <v>43811.89300925926</v>
+        <v>43812.75856481482</v>
       </c>
       <c r="E130" s="6" t="inlineStr"/>
       <c r="F130" s="6" t="inlineStr"/>
@@ -3247,67 +3221,59 @@
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B131" s="7" t="n">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C131" s="8" t="n">
-        <v>43812.36509259259</v>
+        <v>43815.35653935185</v>
       </c>
       <c r="D131" s="8" t="n">
-        <v>43812.36509259259</v>
-      </c>
-      <c r="E131" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F131" s="6" t="n">
-        <v>2.5</v>
-      </c>
+        <v>43815.75416666668</v>
+      </c>
+      <c r="E131" s="6" t="inlineStr"/>
+      <c r="F131" s="6" t="inlineStr"/>
       <c r="G131" s="6" t="inlineStr"/>
       <c r="H131" s="6" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B132" s="7" t="n">
-        <v>43815</v>
-      </c>
-      <c r="C132" s="8" t="inlineStr"/>
-      <c r="D132" s="8" t="inlineStr"/>
-      <c r="E132" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F132" s="6" t="n">
-        <v>16</v>
-      </c>
+        <v>43816</v>
+      </c>
+      <c r="C132" s="8" t="n">
+        <v>43816.35844907408</v>
+      </c>
+      <c r="D132" s="8" t="n">
+        <v>43816.75498842593</v>
+      </c>
+      <c r="E132" s="6" t="inlineStr"/>
+      <c r="F132" s="6" t="inlineStr"/>
       <c r="G132" s="6" t="inlineStr"/>
       <c r="H132" s="6" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B133" s="7" t="n">
-        <v>43816</v>
-      </c>
-      <c r="C133" s="8" t="inlineStr"/>
-      <c r="D133" s="8" t="inlineStr"/>
-      <c r="E133" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="C133" s="8" t="n">
+        <v>43817.35290509259</v>
+      </c>
+      <c r="D133" s="8" t="n">
+        <v>43817.75918981482</v>
+      </c>
+      <c r="E133" s="6" t="inlineStr"/>
       <c r="F133" s="6" t="inlineStr"/>
       <c r="G133" s="6" t="inlineStr"/>
       <c r="H133" s="6" t="inlineStr"/>
@@ -3315,43 +3281,37 @@
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B134" s="7" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="C134" s="8" t="n">
-        <v>43817.37120370369</v>
+        <v>43818.36008101852</v>
       </c>
       <c r="D134" s="8" t="n">
-        <v>43817.37120370369</v>
-      </c>
-      <c r="E134" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F134" s="6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>43818.75858796296</v>
+      </c>
+      <c r="E134" s="6" t="inlineStr"/>
+      <c r="F134" s="6" t="inlineStr"/>
       <c r="G134" s="6" t="inlineStr"/>
       <c r="H134" s="6" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B135" s="7" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="C135" s="8" t="n">
-        <v>43818.36802083333</v>
+        <v>43819.33466435185</v>
       </c>
       <c r="D135" s="8" t="n">
-        <v>43818.78046296296</v>
+        <v>43819.75594907408</v>
       </c>
       <c r="E135" s="6" t="inlineStr"/>
       <c r="F135" s="6" t="inlineStr"/>
@@ -3361,39 +3321,37 @@
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B136" s="7" t="n">
-        <v>43819</v>
-      </c>
-      <c r="C136" s="8" t="inlineStr"/>
-      <c r="D136" s="8" t="inlineStr"/>
-      <c r="E136" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F136" s="6" t="n">
-        <v>8</v>
-      </c>
+        <v>43822</v>
+      </c>
+      <c r="C136" s="8" t="n">
+        <v>43822.35442129631</v>
+      </c>
+      <c r="D136" s="8" t="n">
+        <v>43822.76184027778</v>
+      </c>
+      <c r="E136" s="6" t="inlineStr"/>
+      <c r="F136" s="6" t="inlineStr"/>
       <c r="G136" s="6" t="inlineStr"/>
       <c r="H136" s="6" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B137" s="7" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C137" s="8" t="n">
-        <v>43822.36818287037</v>
+        <v>43823.35795138889</v>
       </c>
       <c r="D137" s="8" t="n">
-        <v>43822.78168981482</v>
+        <v>43823.76733796296</v>
       </c>
       <c r="E137" s="6" t="inlineStr"/>
       <c r="F137" s="6" t="inlineStr"/>
@@ -3403,17 +3361,17 @@
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B138" s="7" t="n">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="C138" s="8" t="n">
-        <v>43823.37086805556</v>
+        <v>43824.34935185185</v>
       </c>
       <c r="D138" s="8" t="n">
-        <v>43823.75211805557</v>
+        <v>43824.76413194443</v>
       </c>
       <c r="E138" s="6" t="inlineStr"/>
       <c r="F138" s="6" t="inlineStr"/>
@@ -3423,63 +3381,57 @@
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>王丽梅</t>
         </is>
       </c>
       <c r="B139" s="7" t="n">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="C139" s="8" t="n">
-        <v>43824.365</v>
+        <v>43825.35403935185</v>
       </c>
       <c r="D139" s="8" t="n">
-        <v>43824.365</v>
-      </c>
-      <c r="E139" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F139" s="6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>43825.75800925926</v>
+      </c>
+      <c r="E139" s="6" t="inlineStr"/>
+      <c r="F139" s="6" t="inlineStr"/>
       <c r="G139" s="6" t="inlineStr"/>
       <c r="H139" s="6" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>马文学</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B140" s="7" t="n">
-        <v>43825</v>
-      </c>
-      <c r="C140" s="8" t="inlineStr"/>
-      <c r="D140" s="8" t="inlineStr"/>
+        <v>43801</v>
+      </c>
+      <c r="C140" s="8" t="n">
+        <v>43801.35762731481</v>
+      </c>
+      <c r="D140" s="8" t="n">
+        <v>43801.75028935185</v>
+      </c>
       <c r="E140" s="6" t="inlineStr"/>
       <c r="F140" s="6" t="inlineStr"/>
       <c r="G140" s="6" t="inlineStr"/>
-      <c r="H140" s="6" t="inlineStr">
-        <is>
-          <t>12/26全天卡</t>
-        </is>
-      </c>
+      <c r="H140" s="6" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B141" s="7" t="n">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C141" s="8" t="n">
-        <v>43801.35962962963</v>
+        <v>43802.35841435185</v>
       </c>
       <c r="D141" s="8" t="n">
-        <v>43801.76373842593</v>
+        <v>43802.75052083333</v>
       </c>
       <c r="E141" s="6" t="inlineStr"/>
       <c r="F141" s="6" t="inlineStr"/>
@@ -3489,97 +3441,121 @@
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B142" s="7" t="n">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C142" s="8" t="n">
-        <v>43802.340625</v>
+        <v>43803.36689814815</v>
       </c>
       <c r="D142" s="8" t="n">
-        <v>43802.75378472222</v>
-      </c>
-      <c r="E142" s="6" t="inlineStr"/>
-      <c r="F142" s="6" t="inlineStr"/>
+        <v>43803.6275</v>
+      </c>
+      <c r="E142" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F142" s="6" t="n">
+        <v>2.5</v>
+      </c>
       <c r="G142" s="6" t="inlineStr"/>
       <c r="H142" s="6" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B143" s="7" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C143" s="8" t="n">
-        <v>43803.31581018519</v>
+        <v>43804.35903935185</v>
       </c>
       <c r="D143" s="8" t="n">
-        <v>43803.7573148148</v>
-      </c>
-      <c r="E143" s="6" t="inlineStr"/>
-      <c r="F143" s="6" t="inlineStr"/>
+        <v>43804.47782407407</v>
+      </c>
+      <c r="E143" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F143" s="6" t="n">
+        <v>5.03</v>
+      </c>
       <c r="G143" s="6" t="inlineStr"/>
       <c r="H143" s="6" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B144" s="7" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C144" s="8" t="n">
-        <v>43804.3656712963</v>
+        <v>43805.36133101852</v>
       </c>
       <c r="D144" s="8" t="n">
-        <v>43804.75572916667</v>
-      </c>
-      <c r="E144" s="6" t="inlineStr"/>
-      <c r="F144" s="6" t="inlineStr"/>
+        <v>43805.70680555556</v>
+      </c>
+      <c r="E144" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F144" s="6" t="n">
+        <v>0.57</v>
+      </c>
       <c r="G144" s="6" t="inlineStr"/>
       <c r="H144" s="6" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B145" s="7" t="n">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C145" s="8" t="n">
-        <v>43805.35733796296</v>
+        <v>43808.34917824074</v>
       </c>
       <c r="D145" s="8" t="n">
-        <v>43805.75594907408</v>
-      </c>
-      <c r="E145" s="6" t="inlineStr"/>
-      <c r="F145" s="6" t="inlineStr"/>
+        <v>43808.69754629629</v>
+      </c>
+      <c r="E145" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F145" s="6" t="n">
+        <v>0.77</v>
+      </c>
       <c r="G145" s="6" t="inlineStr"/>
       <c r="H145" s="6" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B146" s="7" t="n">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C146" s="8" t="n">
-        <v>43808.35244212963</v>
+        <v>43809.35891203704</v>
       </c>
       <c r="D146" s="8" t="n">
-        <v>43808.53394675926</v>
+        <v>43809.70605324074</v>
       </c>
       <c r="E146" s="6" t="inlineStr">
         <is>
@@ -3587,7 +3563,7 @@
         </is>
       </c>
       <c r="F146" s="6" t="n">
-        <v>4.5</v>
+        <v>0.57</v>
       </c>
       <c r="G146" s="6" t="inlineStr"/>
       <c r="H146" s="6" t="inlineStr"/>
@@ -3595,59 +3571,67 @@
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B147" s="7" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C147" s="8" t="n">
-        <v>43809.36663194445</v>
+        <v>43810.35923611111</v>
       </c>
       <c r="D147" s="8" t="n">
-        <v>43809.75671296296</v>
-      </c>
-      <c r="E147" s="6" t="inlineStr"/>
-      <c r="F147" s="6" t="inlineStr"/>
+        <v>43810.71461805556</v>
+      </c>
+      <c r="E147" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F147" s="6" t="n">
+        <v>0.35</v>
+      </c>
       <c r="G147" s="6" t="inlineStr"/>
       <c r="H147" s="6" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B148" s="7" t="n">
-        <v>43810</v>
-      </c>
-      <c r="C148" s="8" t="n">
-        <v>43810.3571875</v>
-      </c>
-      <c r="D148" s="8" t="n">
-        <v>43810.75378472222</v>
-      </c>
-      <c r="E148" s="6" t="inlineStr"/>
-      <c r="F148" s="6" t="inlineStr"/>
+        <v>43811</v>
+      </c>
+      <c r="C148" s="8" t="inlineStr"/>
+      <c r="D148" s="8" t="inlineStr"/>
+      <c r="E148" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F148" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="G148" s="6" t="inlineStr"/>
       <c r="H148" s="6" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B149" s="7" t="n">
-        <v>43811</v>
-      </c>
-      <c r="C149" s="8" t="n">
-        <v>43811.36164351852</v>
-      </c>
-      <c r="D149" s="8" t="n">
-        <v>43811.75479166668</v>
-      </c>
-      <c r="E149" s="6" t="inlineStr"/>
+        <v>43812</v>
+      </c>
+      <c r="C149" s="8" t="inlineStr"/>
+      <c r="D149" s="8" t="inlineStr"/>
+      <c r="E149" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F149" s="6" t="inlineStr"/>
       <c r="G149" s="6" t="inlineStr"/>
       <c r="H149" s="6" t="inlineStr"/>
@@ -3655,17 +3639,17 @@
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B150" s="7" t="n">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C150" s="8" t="n">
-        <v>43812.36357638889</v>
+        <v>43815.37109953703</v>
       </c>
       <c r="D150" s="8" t="n">
-        <v>43812.53081018518</v>
+        <v>43815.62116898148</v>
       </c>
       <c r="E150" s="6" t="inlineStr">
         <is>
@@ -3673,7 +3657,7 @@
         </is>
       </c>
       <c r="F150" s="6" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="G150" s="6" t="inlineStr"/>
       <c r="H150" s="6" t="inlineStr"/>
@@ -3681,37 +3665,43 @@
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B151" s="7" t="n">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C151" s="8" t="n">
-        <v>43815.35957175926</v>
+        <v>43816.35767361111</v>
       </c>
       <c r="D151" s="8" t="n">
-        <v>43815.86138888889</v>
-      </c>
-      <c r="E151" s="6" t="inlineStr"/>
-      <c r="F151" s="6" t="inlineStr"/>
+        <v>43816.46063657408</v>
+      </c>
+      <c r="E151" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F151" s="6" t="n">
+        <v>5.45</v>
+      </c>
       <c r="G151" s="6" t="inlineStr"/>
       <c r="H151" s="6" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B152" s="7" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C152" s="8" t="n">
-        <v>43816.36934027778</v>
+        <v>43817.36071759259</v>
       </c>
       <c r="D152" s="8" t="n">
-        <v>43816.75625</v>
+        <v>43817.75177083333</v>
       </c>
       <c r="E152" s="6" t="inlineStr"/>
       <c r="F152" s="6" t="inlineStr"/>
@@ -3721,39 +3711,41 @@
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B153" s="7" t="n">
-        <v>43817</v>
-      </c>
-      <c r="C153" s="8" t="n">
-        <v>43817.35620370369</v>
-      </c>
-      <c r="D153" s="8" t="n">
-        <v>43817.83942129631</v>
-      </c>
-      <c r="E153" s="6" t="inlineStr"/>
-      <c r="F153" s="6" t="inlineStr"/>
+        <v>43818</v>
+      </c>
+      <c r="C153" s="8" t="inlineStr"/>
+      <c r="D153" s="8" t="inlineStr"/>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="G153" s="6" t="inlineStr"/>
       <c r="H153" s="6" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B154" s="7" t="n">
-        <v>43818</v>
-      </c>
-      <c r="C154" s="8" t="n">
-        <v>43818.35767361111</v>
-      </c>
-      <c r="D154" s="8" t="n">
-        <v>43818.80256944443</v>
-      </c>
-      <c r="E154" s="6" t="inlineStr"/>
+        <v>43819</v>
+      </c>
+      <c r="C154" s="8" t="inlineStr"/>
+      <c r="D154" s="8" t="inlineStr"/>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F154" s="6" t="inlineStr"/>
       <c r="G154" s="6" t="inlineStr"/>
       <c r="H154" s="6" t="inlineStr"/>
@@ -3761,161 +3753,169 @@
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B155" s="7" t="n">
-        <v>43819</v>
-      </c>
-      <c r="C155" s="8" t="n">
-        <v>43819.36383101852</v>
-      </c>
-      <c r="D155" s="8" t="n">
-        <v>43819.78409722223</v>
-      </c>
-      <c r="E155" s="6" t="inlineStr"/>
-      <c r="F155" s="6" t="inlineStr"/>
+        <v>43822</v>
+      </c>
+      <c r="C155" s="8" t="inlineStr"/>
+      <c r="D155" s="8" t="inlineStr"/>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G155" s="6" t="inlineStr"/>
       <c r="H155" s="6" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B156" s="7" t="n">
-        <v>43822</v>
-      </c>
-      <c r="C156" s="8" t="n">
-        <v>43822.35178240741</v>
-      </c>
-      <c r="D156" s="8" t="n">
-        <v>43822.76081018519</v>
-      </c>
-      <c r="E156" s="6" t="inlineStr"/>
-      <c r="F156" s="6" t="inlineStr"/>
+        <v>43823</v>
+      </c>
+      <c r="C156" s="8" t="inlineStr"/>
+      <c r="D156" s="8" t="inlineStr"/>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G156" s="6" t="inlineStr"/>
       <c r="H156" s="6" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B157" s="7" t="n">
-        <v>43823</v>
-      </c>
-      <c r="C157" s="8" t="n">
-        <v>43823.35059027778</v>
-      </c>
-      <c r="D157" s="8" t="n">
-        <v>43823.78519675926</v>
-      </c>
-      <c r="E157" s="6" t="inlineStr"/>
-      <c r="F157" s="6" t="inlineStr"/>
+        <v>43824</v>
+      </c>
+      <c r="C157" s="8" t="inlineStr"/>
+      <c r="D157" s="8" t="inlineStr"/>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G157" s="6" t="inlineStr"/>
       <c r="H157" s="6" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>窦笑然</t>
         </is>
       </c>
       <c r="B158" s="7" t="n">
-        <v>43824</v>
-      </c>
-      <c r="C158" s="8" t="n">
-        <v>43824.32087962963</v>
-      </c>
-      <c r="D158" s="8" t="n">
-        <v>43824.75653935185</v>
-      </c>
-      <c r="E158" s="6" t="inlineStr"/>
-      <c r="F158" s="6" t="inlineStr"/>
+        <v>43825</v>
+      </c>
+      <c r="C158" s="8" t="inlineStr"/>
+      <c r="D158" s="8" t="inlineStr"/>
+      <c r="E158" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F158" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="G158" s="6" t="inlineStr"/>
       <c r="H158" s="6" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>高展</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B159" s="7" t="n">
-        <v>43825</v>
-      </c>
-      <c r="C159" s="8" t="inlineStr"/>
-      <c r="D159" s="8" t="inlineStr"/>
+        <v>43801</v>
+      </c>
+      <c r="C159" s="8" t="n">
+        <v>43801.37412037037</v>
+      </c>
+      <c r="D159" s="8" t="n">
+        <v>43801.77974537037</v>
+      </c>
       <c r="E159" s="6" t="inlineStr"/>
       <c r="F159" s="6" t="inlineStr"/>
       <c r="G159" s="6" t="inlineStr"/>
-      <c r="H159" s="6" t="inlineStr">
-        <is>
-          <t>12/26全天卡</t>
-        </is>
-      </c>
+      <c r="H159" s="6" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B160" s="7" t="n">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C160" s="8" t="n">
-        <v>43801.31497685185</v>
+        <v>43802.3677662037</v>
       </c>
       <c r="D160" s="8" t="n">
-        <v>43801.75082175926</v>
+        <v>43802.3677662037</v>
       </c>
       <c r="E160" s="6" t="inlineStr"/>
       <c r="F160" s="6" t="inlineStr"/>
       <c r="G160" s="6" t="inlineStr"/>
-      <c r="H160" s="6" t="inlineStr"/>
+      <c r="H160" s="6" t="inlineStr">
+        <is>
+          <t>12/03下班卡</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B161" s="7" t="n">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C161" s="8" t="n">
-        <v>43802.38149305555</v>
+        <v>43803.36978009259</v>
       </c>
       <c r="D161" s="8" t="n">
-        <v>43802.76003472223</v>
+        <v>43803.7957523148</v>
       </c>
       <c r="E161" s="6" t="inlineStr"/>
       <c r="F161" s="6" t="inlineStr"/>
-      <c r="G161" s="6" t="inlineStr">
-        <is>
-          <t>12/03-09:09</t>
-        </is>
-      </c>
+      <c r="G161" s="6" t="inlineStr"/>
       <c r="H161" s="6" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B162" s="7" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C162" s="8" t="n">
-        <v>43803.34945601852</v>
+        <v>43804.37155092593</v>
       </c>
       <c r="D162" s="8" t="n">
-        <v>43803.75340277778</v>
+        <v>43804.77162037037</v>
       </c>
       <c r="E162" s="6" t="inlineStr"/>
       <c r="F162" s="6" t="inlineStr"/>
@@ -3925,17 +3925,17 @@
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B163" s="7" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C163" s="8" t="n">
-        <v>43804.36309027778</v>
+        <v>43805.37043981482</v>
       </c>
       <c r="D163" s="8" t="n">
-        <v>43804.75966435186</v>
+        <v>43805.7619675926</v>
       </c>
       <c r="E163" s="6" t="inlineStr"/>
       <c r="F163" s="6" t="inlineStr"/>
@@ -3945,17 +3945,17 @@
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B164" s="7" t="n">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C164" s="8" t="n">
-        <v>43805.36991898148</v>
+        <v>43808.37337962963</v>
       </c>
       <c r="D164" s="8" t="n">
-        <v>43805.75891203704</v>
+        <v>43808.75974537037</v>
       </c>
       <c r="E164" s="6" t="inlineStr"/>
       <c r="F164" s="6" t="inlineStr"/>
@@ -3965,17 +3965,17 @@
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B165" s="7" t="n">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C165" s="8" t="n">
-        <v>43808.36910879629</v>
+        <v>43809.37246527777</v>
       </c>
       <c r="D165" s="8" t="n">
-        <v>43808.82590277777</v>
+        <v>43809.78646990741</v>
       </c>
       <c r="E165" s="6" t="inlineStr"/>
       <c r="F165" s="6" t="inlineStr"/>
@@ -3985,17 +3985,17 @@
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B166" s="7" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C166" s="8" t="n">
-        <v>43809.37454861111</v>
+        <v>43810.36780092592</v>
       </c>
       <c r="D166" s="8" t="n">
-        <v>43809.76247685185</v>
+        <v>43810.75826388889</v>
       </c>
       <c r="E166" s="6" t="inlineStr"/>
       <c r="F166" s="6" t="inlineStr"/>
@@ -4005,17 +4005,17 @@
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B167" s="7" t="n">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="C167" s="8" t="n">
-        <v>43810.36326388889</v>
+        <v>43811.37501157408</v>
       </c>
       <c r="D167" s="8" t="n">
-        <v>43810.75115740741</v>
+        <v>43811.78991898148</v>
       </c>
       <c r="E167" s="6" t="inlineStr"/>
       <c r="F167" s="6" t="inlineStr"/>
@@ -4025,17 +4025,17 @@
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B168" s="7" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C168" s="8" t="n">
-        <v>43811.36273148148</v>
+        <v>43812.37270833334</v>
       </c>
       <c r="D168" s="8" t="n">
-        <v>43811.88946759259</v>
+        <v>43812.84564814815</v>
       </c>
       <c r="E168" s="6" t="inlineStr"/>
       <c r="F168" s="6" t="inlineStr"/>
@@ -4045,81 +4045,89 @@
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B169" s="7" t="n">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C169" s="8" t="n">
-        <v>43812.37582175926</v>
+        <v>43815.37446759259</v>
       </c>
       <c r="D169" s="8" t="n">
-        <v>43812.75851851852</v>
-      </c>
-      <c r="E169" s="6" t="inlineStr"/>
-      <c r="F169" s="6" t="inlineStr"/>
-      <c r="G169" s="6" t="inlineStr">
-        <is>
-          <t>12/13-09:01</t>
-        </is>
-      </c>
+        <v>43815.6846875</v>
+      </c>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F169" s="6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G169" s="6" t="inlineStr"/>
       <c r="H169" s="6" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B170" s="7" t="n">
-        <v>43815</v>
-      </c>
-      <c r="C170" s="8" t="n">
-        <v>43815.37246527777</v>
-      </c>
-      <c r="D170" s="8" t="n">
-        <v>43815.94231481481</v>
-      </c>
-      <c r="E170" s="6" t="inlineStr"/>
-      <c r="F170" s="6" t="inlineStr"/>
+        <v>43816</v>
+      </c>
+      <c r="C170" s="8" t="inlineStr"/>
+      <c r="D170" s="8" t="inlineStr"/>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F170" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G170" s="6" t="inlineStr"/>
       <c r="H170" s="6" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B171" s="7" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C171" s="8" t="n">
-        <v>43816.36547453704</v>
+        <v>43817.37762731482</v>
       </c>
       <c r="D171" s="8" t="n">
-        <v>43816.77754629631</v>
+        <v>43817.83582175926</v>
       </c>
       <c r="E171" s="6" t="inlineStr"/>
       <c r="F171" s="6" t="inlineStr"/>
-      <c r="G171" s="6" t="inlineStr"/>
+      <c r="G171" s="6" t="inlineStr">
+        <is>
+          <t>12/18-09:03</t>
+        </is>
+      </c>
       <c r="H171" s="6" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B172" s="7" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="C172" s="8" t="n">
-        <v>43817.37311342593</v>
+        <v>43818.36564814814</v>
       </c>
       <c r="D172" s="8" t="n">
-        <v>43817.97756944445</v>
+        <v>43818.86278935185</v>
       </c>
       <c r="E172" s="6" t="inlineStr"/>
       <c r="F172" s="6" t="inlineStr"/>
@@ -4129,17 +4137,17 @@
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B173" s="7" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="C173" s="8" t="n">
-        <v>43818.36168981482</v>
+        <v>43819.30998842593</v>
       </c>
       <c r="D173" s="8" t="n">
-        <v>43818.75896990741</v>
+        <v>43819.81715277778</v>
       </c>
       <c r="E173" s="6" t="inlineStr"/>
       <c r="F173" s="6" t="inlineStr"/>
@@ -4149,41 +4157,37 @@
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B174" s="7" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="C174" s="8" t="n">
-        <v>43819.37577546296</v>
+        <v>43822.34791666668</v>
       </c>
       <c r="D174" s="8" t="n">
-        <v>43819.75613425926</v>
+        <v>43822.90195601852</v>
       </c>
       <c r="E174" s="6" t="inlineStr"/>
       <c r="F174" s="6" t="inlineStr"/>
-      <c r="G174" s="6" t="inlineStr">
-        <is>
-          <t>12/20-09:01</t>
-        </is>
-      </c>
+      <c r="G174" s="6" t="inlineStr"/>
       <c r="H174" s="6" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B175" s="7" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C175" s="8" t="n">
-        <v>43822.36716435185</v>
+        <v>43823.37521990741</v>
       </c>
       <c r="D175" s="8" t="n">
-        <v>43822.76197916668</v>
+        <v>43823.76740740741</v>
       </c>
       <c r="E175" s="6" t="inlineStr"/>
       <c r="F175" s="6" t="inlineStr"/>
@@ -4193,17 +4197,17 @@
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B176" s="7" t="n">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="C176" s="8" t="n">
-        <v>43823.36876157407</v>
+        <v>43824.37266203705</v>
       </c>
       <c r="D176" s="8" t="n">
-        <v>43823.76759259259</v>
+        <v>43824.79655092592</v>
       </c>
       <c r="E176" s="6" t="inlineStr"/>
       <c r="F176" s="6" t="inlineStr"/>
@@ -4213,17 +4217,17 @@
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>荆蕾</t>
         </is>
       </c>
       <c r="B177" s="7" t="n">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="C177" s="8" t="n">
-        <v>43824.37260416667</v>
+        <v>43825.37175925926</v>
       </c>
       <c r="D177" s="8" t="n">
-        <v>43824.76424768518</v>
+        <v>43825.81773148148</v>
       </c>
       <c r="E177" s="6" t="inlineStr"/>
       <c r="F177" s="6" t="inlineStr"/>
@@ -4233,17 +4237,17 @@
     <row r="178">
       <c r="A178" s="6" t="inlineStr">
         <is>
-          <t>金灿灿</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B178" s="7" t="n">
-        <v>43825</v>
+        <v>43801</v>
       </c>
       <c r="C178" s="8" t="n">
-        <v>43825.36065972222</v>
+        <v>43801.32386574074</v>
       </c>
       <c r="D178" s="8" t="n">
-        <v>43825.75836805555</v>
+        <v>43801.75006944445</v>
       </c>
       <c r="E178" s="6" t="inlineStr"/>
       <c r="F178" s="6" t="inlineStr"/>
@@ -4253,17 +4257,17 @@
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B179" s="7" t="n">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C179" s="8" t="n">
-        <v>43801.36495370371</v>
+        <v>43802.34033564815</v>
       </c>
       <c r="D179" s="8" t="n">
-        <v>43801.75015046296</v>
+        <v>43802.97971064815</v>
       </c>
       <c r="E179" s="6" t="inlineStr"/>
       <c r="F179" s="6" t="inlineStr"/>
@@ -4273,41 +4277,37 @@
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B180" s="7" t="n">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C180" s="8" t="n">
-        <v>43802.38166666667</v>
+        <v>43803.04864583333</v>
       </c>
       <c r="D180" s="8" t="n">
-        <v>43802.75424768519</v>
+        <v>43803.75015046296</v>
       </c>
       <c r="E180" s="6" t="inlineStr"/>
       <c r="F180" s="6" t="inlineStr"/>
-      <c r="G180" s="6" t="inlineStr">
-        <is>
-          <t>12/03-09:09</t>
-        </is>
-      </c>
+      <c r="G180" s="6" t="inlineStr"/>
       <c r="H180" s="6" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B181" s="7" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C181" s="8" t="n">
-        <v>43803.36512731481</v>
+        <v>43804.36040509259</v>
       </c>
       <c r="D181" s="8" t="n">
-        <v>43803.75098379629</v>
+        <v>43804.75021990741</v>
       </c>
       <c r="E181" s="6" t="inlineStr"/>
       <c r="F181" s="6" t="inlineStr"/>
@@ -4317,17 +4317,17 @@
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B182" s="7" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C182" s="8" t="n">
-        <v>43804.36328703703</v>
+        <v>43805.35685185185</v>
       </c>
       <c r="D182" s="8" t="n">
-        <v>43804.76431712963</v>
+        <v>43805.7500462963</v>
       </c>
       <c r="E182" s="6" t="inlineStr"/>
       <c r="F182" s="6" t="inlineStr"/>
@@ -4337,17 +4337,17 @@
     <row r="183">
       <c r="A183" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B183" s="7" t="n">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C183" s="8" t="n">
-        <v>43805.37085648148</v>
+        <v>43808.34168981481</v>
       </c>
       <c r="D183" s="8" t="n">
-        <v>43805.75912037037</v>
+        <v>43808.75010416667</v>
       </c>
       <c r="E183" s="6" t="inlineStr"/>
       <c r="F183" s="6" t="inlineStr"/>
@@ -4357,17 +4357,17 @@
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B184" s="7" t="n">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C184" s="8" t="n">
-        <v>43808.37039351852</v>
+        <v>43809.35768518518</v>
       </c>
       <c r="D184" s="8" t="n">
-        <v>43808.7959837963</v>
+        <v>43809.75005787037</v>
       </c>
       <c r="E184" s="6" t="inlineStr"/>
       <c r="F184" s="6" t="inlineStr"/>
@@ -4377,37 +4377,43 @@
     <row r="185">
       <c r="A185" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B185" s="7" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C185" s="8" t="n">
-        <v>43809.37458333333</v>
+        <v>43810.36109953704</v>
       </c>
       <c r="D185" s="8" t="n">
-        <v>43809.76013888889</v>
-      </c>
-      <c r="E185" s="6" t="inlineStr"/>
-      <c r="F185" s="6" t="inlineStr"/>
+        <v>43810.36109953704</v>
+      </c>
+      <c r="E185" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F185" s="6" t="n">
+        <v>3.5</v>
+      </c>
       <c r="G185" s="6" t="inlineStr"/>
       <c r="H185" s="6" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B186" s="7" t="n">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="C186" s="8" t="n">
-        <v>43810.36393518518</v>
+        <v>43811.35855324074</v>
       </c>
       <c r="D186" s="8" t="n">
-        <v>43810.75030092592</v>
+        <v>43811.75017361111</v>
       </c>
       <c r="E186" s="6" t="inlineStr"/>
       <c r="F186" s="6" t="inlineStr"/>
@@ -4417,17 +4423,17 @@
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B187" s="7" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C187" s="8" t="n">
-        <v>43811.35395833333</v>
+        <v>43812.3599537037</v>
       </c>
       <c r="D187" s="8" t="n">
-        <v>43811.88101851852</v>
+        <v>43812.75215277778</v>
       </c>
       <c r="E187" s="6" t="inlineStr"/>
       <c r="F187" s="6" t="inlineStr"/>
@@ -4437,165 +4443,179 @@
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B188" s="7" t="n">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C188" s="8" t="n">
-        <v>43812.37596064815</v>
+        <v>43815.31975694445</v>
       </c>
       <c r="D188" s="8" t="n">
-        <v>43812.75643518518</v>
+        <v>43815.75186342592</v>
       </c>
       <c r="E188" s="6" t="inlineStr"/>
       <c r="F188" s="6" t="inlineStr"/>
-      <c r="G188" s="6" t="inlineStr">
-        <is>
-          <t>12/13-09:01</t>
-        </is>
-      </c>
+      <c r="G188" s="6" t="inlineStr"/>
       <c r="H188" s="6" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B189" s="7" t="n">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C189" s="8" t="n">
-        <v>43815.37376157408</v>
+        <v>43816.33692129629</v>
       </c>
       <c r="D189" s="8" t="n">
-        <v>43815.7530787037</v>
-      </c>
-      <c r="E189" s="6" t="inlineStr"/>
-      <c r="F189" s="6" t="inlineStr"/>
+        <v>43816.33692129629</v>
+      </c>
+      <c r="E189" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F189" s="6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="G189" s="6" t="inlineStr"/>
       <c r="H189" s="6" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B190" s="7" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C190" s="8" t="n">
-        <v>43816.36599537037</v>
+        <v>43817.75324074074</v>
       </c>
       <c r="D190" s="8" t="n">
-        <v>43816.78803240741</v>
-      </c>
-      <c r="E190" s="6" t="inlineStr"/>
-      <c r="F190" s="6" t="inlineStr"/>
+        <v>43817.75324074074</v>
+      </c>
+      <c r="E190" s="6" t="inlineStr">
+        <is>
+          <t>漏打卡</t>
+        </is>
+      </c>
+      <c r="F190" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="G190" s="6" t="inlineStr"/>
       <c r="H190" s="6" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B191" s="7" t="n">
-        <v>43817</v>
-      </c>
-      <c r="C191" s="8" t="n">
-        <v>43817.37417824074</v>
-      </c>
-      <c r="D191" s="8" t="n">
-        <v>43817.97725694445</v>
-      </c>
-      <c r="E191" s="6" t="inlineStr"/>
-      <c r="F191" s="6" t="inlineStr"/>
+        <v>43818</v>
+      </c>
+      <c r="C191" s="8" t="inlineStr"/>
+      <c r="D191" s="8" t="inlineStr"/>
+      <c r="E191" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F191" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G191" s="6" t="inlineStr"/>
       <c r="H191" s="6" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B192" s="7" t="n">
-        <v>43818</v>
-      </c>
-      <c r="C192" s="8" t="n">
-        <v>43818.36221064815</v>
-      </c>
-      <c r="D192" s="8" t="n">
-        <v>43818.75118055557</v>
-      </c>
-      <c r="E192" s="6" t="inlineStr"/>
-      <c r="F192" s="6" t="inlineStr"/>
+        <v>43819</v>
+      </c>
+      <c r="C192" s="8" t="inlineStr"/>
+      <c r="D192" s="8" t="inlineStr"/>
+      <c r="E192" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F192" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G192" s="6" t="inlineStr"/>
       <c r="H192" s="6" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B193" s="7" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="C193" s="8" t="n">
-        <v>43819.37582175926</v>
+        <v>43822.37449074074</v>
       </c>
       <c r="D193" s="8" t="n">
-        <v>43819.75145833333</v>
+        <v>43822.7500462963</v>
       </c>
       <c r="E193" s="6" t="inlineStr"/>
       <c r="F193" s="6" t="inlineStr"/>
-      <c r="G193" s="6" t="inlineStr">
-        <is>
-          <t>12/20-09:01</t>
-        </is>
-      </c>
+      <c r="G193" s="6" t="inlineStr"/>
       <c r="H193" s="6" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B194" s="7" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C194" s="8" t="n">
-        <v>43822.36793981482</v>
+        <v>43823.69086805556</v>
       </c>
       <c r="D194" s="8" t="n">
-        <v>43822.75269675926</v>
-      </c>
-      <c r="E194" s="6" t="inlineStr"/>
-      <c r="F194" s="6" t="inlineStr"/>
+        <v>43823.75017361111</v>
+      </c>
+      <c r="E194" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F194" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G194" s="6" t="inlineStr"/>
       <c r="H194" s="6" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B195" s="7" t="n">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="C195" s="8" t="n">
-        <v>43823.36929398148</v>
+        <v>43824.364375</v>
       </c>
       <c r="D195" s="8" t="n">
-        <v>43823.78116898148</v>
+        <v>43824.75011574074</v>
       </c>
       <c r="E195" s="6" t="inlineStr"/>
       <c r="F195" s="6" t="inlineStr"/>
@@ -4605,43 +4625,37 @@
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>赵志强</t>
         </is>
       </c>
       <c r="B196" s="7" t="n">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="C196" s="8" t="n">
-        <v>43824.75186342592</v>
+        <v>43825.34065972222</v>
       </c>
       <c r="D196" s="8" t="n">
-        <v>43824.75186342592</v>
-      </c>
-      <c r="E196" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F196" s="6" t="n">
-        <v>3</v>
-      </c>
+        <v>43825.75048611111</v>
+      </c>
+      <c r="E196" s="6" t="inlineStr"/>
+      <c r="F196" s="6" t="inlineStr"/>
       <c r="G196" s="6" t="inlineStr"/>
       <c r="H196" s="6" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="6" t="inlineStr">
         <is>
-          <t>温晓萍</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B197" s="7" t="n">
-        <v>43825</v>
+        <v>43801</v>
       </c>
       <c r="C197" s="8" t="n">
-        <v>43825.36238425926</v>
+        <v>43801.35618055556</v>
       </c>
       <c r="D197" s="8" t="n">
-        <v>43825.75060185185</v>
+        <v>43801.75381944444</v>
       </c>
       <c r="E197" s="6" t="inlineStr"/>
       <c r="F197" s="6" t="inlineStr"/>
@@ -4651,17 +4665,17 @@
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B198" s="7" t="n">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C198" s="8" t="n">
-        <v>43801.366875</v>
+        <v>43802.34444444445</v>
       </c>
       <c r="D198" s="8" t="n">
-        <v>43801.76387731481</v>
+        <v>43802.75974537037</v>
       </c>
       <c r="E198" s="6" t="inlineStr"/>
       <c r="F198" s="6" t="inlineStr"/>
@@ -4671,37 +4685,43 @@
     <row r="199">
       <c r="A199" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B199" s="7" t="n">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C199" s="8" t="n">
-        <v>43802.36495370371</v>
+        <v>43803.33891203703</v>
       </c>
       <c r="D199" s="8" t="n">
-        <v>43802.7540625</v>
-      </c>
-      <c r="E199" s="6" t="inlineStr"/>
-      <c r="F199" s="6" t="inlineStr"/>
+        <v>43803.64987268519</v>
+      </c>
+      <c r="E199" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F199" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="G199" s="6" t="inlineStr"/>
       <c r="H199" s="6" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B200" s="7" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C200" s="8" t="n">
-        <v>43803.35961805555</v>
+        <v>43804.3331712963</v>
       </c>
       <c r="D200" s="8" t="n">
-        <v>43803.76016203704</v>
+        <v>43804.7912037037</v>
       </c>
       <c r="E200" s="6" t="inlineStr"/>
       <c r="F200" s="6" t="inlineStr"/>
@@ -4711,17 +4731,17 @@
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B201" s="7" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C201" s="8" t="n">
-        <v>43804.36361111111</v>
+        <v>43805.33012731482</v>
       </c>
       <c r="D201" s="8" t="n">
-        <v>43804.77111111111</v>
+        <v>43805.79952546295</v>
       </c>
       <c r="E201" s="6" t="inlineStr"/>
       <c r="F201" s="6" t="inlineStr"/>
@@ -4731,17 +4751,17 @@
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B202" s="7" t="n">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C202" s="8" t="n">
-        <v>43805.3550925926</v>
+        <v>43808.33778935186</v>
       </c>
       <c r="D202" s="8" t="n">
-        <v>43805.75917824074</v>
+        <v>43808.75393518519</v>
       </c>
       <c r="E202" s="6" t="inlineStr"/>
       <c r="F202" s="6" t="inlineStr"/>
@@ -4751,17 +4771,17 @@
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B203" s="7" t="n">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C203" s="8" t="n">
-        <v>43808.34387731483</v>
+        <v>43809.33797453704</v>
       </c>
       <c r="D203" s="8" t="n">
-        <v>43808.75260416666</v>
+        <v>43809.75466435185</v>
       </c>
       <c r="E203" s="6" t="inlineStr"/>
       <c r="F203" s="6" t="inlineStr"/>
@@ -4771,37 +4791,43 @@
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B204" s="7" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C204" s="8" t="n">
-        <v>43809.36393518518</v>
+        <v>43810.3591087963</v>
       </c>
       <c r="D204" s="8" t="n">
-        <v>43809.754375</v>
-      </c>
-      <c r="E204" s="6" t="inlineStr"/>
-      <c r="F204" s="6" t="inlineStr"/>
+        <v>43810.75234953704</v>
+      </c>
+      <c r="E204" s="6" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="F204" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="G204" s="6" t="inlineStr"/>
       <c r="H204" s="6" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B205" s="7" t="n">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="C205" s="8" t="n">
-        <v>43810.36163194444</v>
+        <v>43811.34798611111</v>
       </c>
       <c r="D205" s="8" t="n">
-        <v>43810.75231481482</v>
+        <v>43811.75576388889</v>
       </c>
       <c r="E205" s="6" t="inlineStr"/>
       <c r="F205" s="6" t="inlineStr"/>
@@ -4811,17 +4837,17 @@
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B206" s="7" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C206" s="8" t="n">
-        <v>43811.35849537037</v>
+        <v>43812.34737268519</v>
       </c>
       <c r="D206" s="8" t="n">
-        <v>43811.75258101852</v>
+        <v>43812.76349537037</v>
       </c>
       <c r="E206" s="6" t="inlineStr"/>
       <c r="F206" s="6" t="inlineStr"/>
@@ -4831,25 +4857,25 @@
     <row r="207">
       <c r="A207" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B207" s="7" t="n">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C207" s="8" t="n">
-        <v>43812.34077546297</v>
+        <v>43815.35982638889</v>
       </c>
       <c r="D207" s="8" t="n">
-        <v>43812.48630787037</v>
+        <v>43815.75743055555</v>
       </c>
       <c r="E207" s="6" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>因公外出</t>
         </is>
       </c>
       <c r="F207" s="6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G207" s="6" t="inlineStr"/>
       <c r="H207" s="6" t="inlineStr"/>
@@ -4857,65 +4883,57 @@
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B208" s="7" t="n">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C208" s="8" t="n">
-        <v>43815.37622685185</v>
+        <v>43816.33712962963</v>
       </c>
       <c r="D208" s="8" t="n">
-        <v>43815.76060185185</v>
+        <v>43816.7668287037</v>
       </c>
       <c r="E208" s="6" t="inlineStr"/>
       <c r="F208" s="6" t="inlineStr"/>
-      <c r="G208" s="6" t="inlineStr">
-        <is>
-          <t>12/16-09:01</t>
-        </is>
-      </c>
+      <c r="G208" s="6" t="inlineStr"/>
       <c r="H208" s="6" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B209" s="7" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C209" s="8" t="n">
-        <v>43816.76849537037</v>
+        <v>43817.34475694445</v>
       </c>
       <c r="D209" s="8" t="n">
-        <v>43816.76849537037</v>
+        <v>43817.76446759259</v>
       </c>
       <c r="E209" s="6" t="inlineStr"/>
       <c r="F209" s="6" t="inlineStr"/>
       <c r="G209" s="6" t="inlineStr"/>
-      <c r="H209" s="6" t="inlineStr">
-        <is>
-          <t>12/17上班卡</t>
-        </is>
-      </c>
+      <c r="H209" s="6" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B210" s="7" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="C210" s="8" t="n">
-        <v>43817.37280092593</v>
+        <v>43818.3459375</v>
       </c>
       <c r="D210" s="8" t="n">
-        <v>43817.76405092593</v>
+        <v>43818.75657407408</v>
       </c>
       <c r="E210" s="6" t="inlineStr"/>
       <c r="F210" s="6" t="inlineStr"/>
@@ -4925,17 +4943,17 @@
     <row r="211">
       <c r="A211" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B211" s="7" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="C211" s="8" t="n">
-        <v>43818.36721064815</v>
+        <v>43819.32675925926</v>
       </c>
       <c r="D211" s="8" t="n">
-        <v>43818.75613425926</v>
+        <v>43819.75900462963</v>
       </c>
       <c r="E211" s="6" t="inlineStr"/>
       <c r="F211" s="6" t="inlineStr"/>
@@ -4945,17 +4963,17 @@
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B212" s="7" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="C212" s="8" t="n">
-        <v>43819.36942129629</v>
+        <v>43822.36032407408</v>
       </c>
       <c r="D212" s="8" t="n">
-        <v>43819.75682870371</v>
+        <v>43822.75508101852</v>
       </c>
       <c r="E212" s="6" t="inlineStr"/>
       <c r="F212" s="6" t="inlineStr"/>
@@ -4965,17 +4983,17 @@
     <row r="213">
       <c r="A213" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B213" s="7" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C213" s="8" t="n">
-        <v>43822.35252314815</v>
+        <v>43823.3515625</v>
       </c>
       <c r="D213" s="8" t="n">
-        <v>43822.75631944443</v>
+        <v>43823.7613425926</v>
       </c>
       <c r="E213" s="6" t="inlineStr"/>
       <c r="F213" s="6" t="inlineStr"/>
@@ -4985,43 +5003,37 @@
     <row r="214">
       <c r="A214" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B214" s="7" t="n">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="C214" s="8" t="n">
-        <v>43823.48076388889</v>
+        <v>43824.35398148148</v>
       </c>
       <c r="D214" s="8" t="n">
-        <v>43823.77625</v>
-      </c>
-      <c r="E214" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F214" s="6" t="n">
-        <v>8</v>
-      </c>
+        <v>43824.75341435185</v>
+      </c>
+      <c r="E214" s="6" t="inlineStr"/>
+      <c r="F214" s="6" t="inlineStr"/>
       <c r="G214" s="6" t="inlineStr"/>
       <c r="H214" s="6" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>郑梅云</t>
         </is>
       </c>
       <c r="B215" s="7" t="n">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="C215" s="8" t="n">
-        <v>43824.36711805555</v>
+        <v>43825.34369212963</v>
       </c>
       <c r="D215" s="8" t="n">
-        <v>43824.76081018519</v>
+        <v>43825.87165509259</v>
       </c>
       <c r="E215" s="6" t="inlineStr"/>
       <c r="F215" s="6" t="inlineStr"/>
@@ -5031,17 +5043,17 @@
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>张苏南</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B216" s="7" t="n">
-        <v>43825</v>
+        <v>43801</v>
       </c>
       <c r="C216" s="8" t="n">
-        <v>43825.34438657408</v>
+        <v>43801.31497685185</v>
       </c>
       <c r="D216" s="8" t="n">
-        <v>43825.75741898148</v>
+        <v>43801.75082175926</v>
       </c>
       <c r="E216" s="6" t="inlineStr"/>
       <c r="F216" s="6" t="inlineStr"/>
@@ -5051,61 +5063,61 @@
     <row r="217">
       <c r="A217" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B217" s="7" t="n">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C217" s="8" t="n">
-        <v>43801.34871527777</v>
+        <v>43802.38149305555</v>
       </c>
       <c r="D217" s="8" t="n">
-        <v>43801.80203703705</v>
+        <v>43802.76003472223</v>
       </c>
       <c r="E217" s="6" t="inlineStr"/>
       <c r="F217" s="6" t="inlineStr"/>
-      <c r="G217" s="6" t="inlineStr"/>
+      <c r="G217" s="6" t="inlineStr">
+        <is>
+          <t>12/03-09:09</t>
+        </is>
+      </c>
       <c r="H217" s="6" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B218" s="7" t="n">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C218" s="8" t="n">
-        <v>43802.35159722222</v>
+        <v>43803.34945601852</v>
       </c>
       <c r="D218" s="8" t="n">
-        <v>43802.74762731481</v>
+        <v>43803.75340277778</v>
       </c>
       <c r="E218" s="6" t="inlineStr"/>
       <c r="F218" s="6" t="inlineStr"/>
-      <c r="G218" s="6" t="inlineStr">
-        <is>
-          <t>12/03-17:56</t>
-        </is>
-      </c>
+      <c r="G218" s="6" t="inlineStr"/>
       <c r="H218" s="6" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B219" s="7" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C219" s="8" t="n">
-        <v>43803.34958333334</v>
+        <v>43804.36309027778</v>
       </c>
       <c r="D219" s="8" t="n">
-        <v>43803.75158564815</v>
+        <v>43804.75966435186</v>
       </c>
       <c r="E219" s="6" t="inlineStr"/>
       <c r="F219" s="6" t="inlineStr"/>
@@ -5115,17 +5127,17 @@
     <row r="220">
       <c r="A220" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B220" s="7" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C220" s="8" t="n">
-        <v>43804.35112268518</v>
+        <v>43805.36991898148</v>
       </c>
       <c r="D220" s="8" t="n">
-        <v>43804.75494212963</v>
+        <v>43805.75891203704</v>
       </c>
       <c r="E220" s="6" t="inlineStr"/>
       <c r="F220" s="6" t="inlineStr"/>
@@ -5135,43 +5147,37 @@
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B221" s="7" t="n">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C221" s="8" t="n">
-        <v>43805.35119212963</v>
+        <v>43808.36910879629</v>
       </c>
       <c r="D221" s="8" t="n">
-        <v>43805.70723379631</v>
-      </c>
-      <c r="E221" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F221" s="6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>43808.82590277777</v>
+      </c>
+      <c r="E221" s="6" t="inlineStr"/>
+      <c r="F221" s="6" t="inlineStr"/>
       <c r="G221" s="6" t="inlineStr"/>
       <c r="H221" s="6" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B222" s="7" t="n">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C222" s="8" t="n">
-        <v>43808.35349537037</v>
+        <v>43809.37454861111</v>
       </c>
       <c r="D222" s="8" t="n">
-        <v>43808.80347222222</v>
+        <v>43809.76247685185</v>
       </c>
       <c r="E222" s="6" t="inlineStr"/>
       <c r="F222" s="6" t="inlineStr"/>
@@ -5181,17 +5187,17 @@
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B223" s="7" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C223" s="8" t="n">
-        <v>43809.34951388889</v>
+        <v>43810.36326388889</v>
       </c>
       <c r="D223" s="8" t="n">
-        <v>43809.75335648148</v>
+        <v>43810.75115740741</v>
       </c>
       <c r="E223" s="6" t="inlineStr"/>
       <c r="F223" s="6" t="inlineStr"/>
@@ -5201,63 +5207,61 @@
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B224" s="7" t="n">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="C224" s="8" t="n">
-        <v>43810.34931712963</v>
+        <v>43811.36273148148</v>
       </c>
       <c r="D224" s="8" t="n">
-        <v>43810.56071759259</v>
-      </c>
-      <c r="E224" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F224" s="6" t="n">
-        <v>3.5</v>
-      </c>
+        <v>43811.88946759259</v>
+      </c>
+      <c r="E224" s="6" t="inlineStr"/>
+      <c r="F224" s="6" t="inlineStr"/>
       <c r="G224" s="6" t="inlineStr"/>
       <c r="H224" s="6" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B225" s="7" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C225" s="8" t="n">
-        <v>43811.34969907408</v>
+        <v>43812.37582175926</v>
       </c>
       <c r="D225" s="8" t="n">
-        <v>43811.75025462963</v>
+        <v>43812.75851851852</v>
       </c>
       <c r="E225" s="6" t="inlineStr"/>
       <c r="F225" s="6" t="inlineStr"/>
-      <c r="G225" s="6" t="inlineStr"/>
+      <c r="G225" s="6" t="inlineStr">
+        <is>
+          <t>12/13-09:01</t>
+        </is>
+      </c>
       <c r="H225" s="6" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B226" s="7" t="n">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C226" s="8" t="n">
-        <v>43812.34890046297</v>
+        <v>43815.37246527777</v>
       </c>
       <c r="D226" s="8" t="n">
-        <v>43812.75407407407</v>
+        <v>43815.94231481481</v>
       </c>
       <c r="E226" s="6" t="inlineStr"/>
       <c r="F226" s="6" t="inlineStr"/>
@@ -5267,17 +5271,17 @@
     <row r="227">
       <c r="A227" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B227" s="7" t="n">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C227" s="8" t="n">
-        <v>43815.35104166667</v>
+        <v>43816.36547453704</v>
       </c>
       <c r="D227" s="8" t="n">
-        <v>43815.80630787037</v>
+        <v>43816.77754629631</v>
       </c>
       <c r="E227" s="6" t="inlineStr"/>
       <c r="F227" s="6" t="inlineStr"/>
@@ -5287,17 +5291,17 @@
     <row r="228">
       <c r="A228" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B228" s="7" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C228" s="8" t="n">
-        <v>43816.35413194444</v>
+        <v>43817.37311342593</v>
       </c>
       <c r="D228" s="8" t="n">
-        <v>43816.75722222222</v>
+        <v>43817.97756944445</v>
       </c>
       <c r="E228" s="6" t="inlineStr"/>
       <c r="F228" s="6" t="inlineStr"/>
@@ -5307,17 +5311,17 @@
     <row r="229">
       <c r="A229" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B229" s="7" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="C229" s="8" t="n">
-        <v>43817.35103009259</v>
+        <v>43818.36168981482</v>
       </c>
       <c r="D229" s="8" t="n">
-        <v>43817.76902777778</v>
+        <v>43818.75896990741</v>
       </c>
       <c r="E229" s="6" t="inlineStr"/>
       <c r="F229" s="6" t="inlineStr"/>
@@ -5327,37 +5331,41 @@
     <row r="230">
       <c r="A230" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B230" s="7" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="C230" s="8" t="n">
-        <v>43818.35175925926</v>
+        <v>43819.37577546296</v>
       </c>
       <c r="D230" s="8" t="n">
-        <v>43818.75493055556</v>
+        <v>43819.75613425926</v>
       </c>
       <c r="E230" s="6" t="inlineStr"/>
       <c r="F230" s="6" t="inlineStr"/>
-      <c r="G230" s="6" t="inlineStr"/>
+      <c r="G230" s="6" t="inlineStr">
+        <is>
+          <t>12/20-09:01</t>
+        </is>
+      </c>
       <c r="H230" s="6" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B231" s="7" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="C231" s="8" t="n">
-        <v>43819.35348379629</v>
+        <v>43822.36716435185</v>
       </c>
       <c r="D231" s="8" t="n">
-        <v>43819.75317129631</v>
+        <v>43822.76197916668</v>
       </c>
       <c r="E231" s="6" t="inlineStr"/>
       <c r="F231" s="6" t="inlineStr"/>
@@ -5367,17 +5375,17 @@
     <row r="232">
       <c r="A232" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B232" s="7" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C232" s="8" t="n">
-        <v>43822.35431712963</v>
+        <v>43823.36876157407</v>
       </c>
       <c r="D232" s="8" t="n">
-        <v>43822.7525</v>
+        <v>43823.76759259259</v>
       </c>
       <c r="E232" s="6" t="inlineStr"/>
       <c r="F232" s="6" t="inlineStr"/>
@@ -5387,17 +5395,17 @@
     <row r="233">
       <c r="A233" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B233" s="7" t="n">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="C233" s="8" t="n">
-        <v>43823.35222222221</v>
+        <v>43824.37260416667</v>
       </c>
       <c r="D233" s="8" t="n">
-        <v>43823.7546875</v>
+        <v>43824.76424768518</v>
       </c>
       <c r="E233" s="6" t="inlineStr"/>
       <c r="F233" s="6" t="inlineStr"/>
@@ -5407,17 +5415,17 @@
     <row r="234">
       <c r="A234" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>金灿灿</t>
         </is>
       </c>
       <c r="B234" s="7" t="n">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="C234" s="8" t="n">
-        <v>43824.353125</v>
+        <v>43825.36065972222</v>
       </c>
       <c r="D234" s="8" t="n">
-        <v>43824.75233796295</v>
+        <v>43825.75836805555</v>
       </c>
       <c r="E234" s="6" t="inlineStr"/>
       <c r="F234" s="6" t="inlineStr"/>
@@ -5427,17 +5435,17 @@
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>凌萍</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B235" s="7" t="n">
-        <v>43825</v>
+        <v>43801</v>
       </c>
       <c r="C235" s="8" t="n">
-        <v>43825.35358796296</v>
+        <v>43801.35769675926</v>
       </c>
       <c r="D235" s="8" t="n">
-        <v>43825.75261574074</v>
+        <v>43801.77214120371</v>
       </c>
       <c r="E235" s="6" t="inlineStr"/>
       <c r="F235" s="6" t="inlineStr"/>
@@ -5447,27 +5455,29 @@
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B236" s="7" t="n">
-        <v>43801</v>
-      </c>
-      <c r="C236" s="8" t="n">
-        <v>43801.35184027778</v>
-      </c>
-      <c r="D236" s="8" t="n">
-        <v>43801.75203703704</v>
-      </c>
-      <c r="E236" s="6" t="inlineStr"/>
-      <c r="F236" s="6" t="inlineStr"/>
+        <v>43802</v>
+      </c>
+      <c r="C236" s="8" t="inlineStr"/>
+      <c r="D236" s="8" t="inlineStr"/>
+      <c r="E236" s="6" t="inlineStr">
+        <is>
+          <t>漏打卡</t>
+        </is>
+      </c>
+      <c r="F236" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="G236" s="6" t="inlineStr"/>
       <c r="H236" s="6" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B237" s="7" t="n">
@@ -5477,11 +5487,11 @@
       <c r="D237" s="8" t="inlineStr"/>
       <c r="E237" s="6" t="inlineStr">
         <is>
-          <t>事假</t>
+          <t>因公外出</t>
         </is>
       </c>
       <c r="F237" s="6" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G237" s="6" t="inlineStr"/>
       <c r="H237" s="6" t="inlineStr"/>
@@ -5489,37 +5499,43 @@
     <row r="238">
       <c r="A238" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B238" s="7" t="n">
         <v>43803</v>
       </c>
       <c r="C238" s="8" t="n">
-        <v>43803.34783564815</v>
+        <v>43803.36851851852</v>
       </c>
       <c r="D238" s="8" t="n">
-        <v>43803.75336805556</v>
-      </c>
-      <c r="E238" s="6" t="inlineStr"/>
-      <c r="F238" s="6" t="inlineStr"/>
+        <v>43803.36851851852</v>
+      </c>
+      <c r="E238" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F238" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="G238" s="6" t="inlineStr"/>
       <c r="H238" s="6" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B239" s="7" t="n">
         <v>43804</v>
       </c>
       <c r="C239" s="8" t="n">
-        <v>43804.35298611111</v>
+        <v>43804.36729166667</v>
       </c>
       <c r="D239" s="8" t="n">
-        <v>43804.76287037037</v>
+        <v>43804.76799768519</v>
       </c>
       <c r="E239" s="6" t="inlineStr"/>
       <c r="F239" s="6" t="inlineStr"/>
@@ -5529,43 +5545,37 @@
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B240" s="7" t="n">
         <v>43805</v>
       </c>
       <c r="C240" s="8" t="n">
-        <v>43805.35274305557</v>
+        <v>43805.36752314815</v>
       </c>
       <c r="D240" s="8" t="n">
-        <v>43805.35288194445</v>
-      </c>
-      <c r="E240" s="6" t="inlineStr">
-        <is>
-          <t>漏打卡</t>
-        </is>
-      </c>
-      <c r="F240" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>43805.75908564815</v>
+      </c>
+      <c r="E240" s="6" t="inlineStr"/>
+      <c r="F240" s="6" t="inlineStr"/>
       <c r="G240" s="6" t="inlineStr"/>
       <c r="H240" s="6" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B241" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C241" s="8" t="n">
-        <v>43808.35090277779</v>
+        <v>43808.35534722222</v>
       </c>
       <c r="D241" s="8" t="n">
-        <v>43808.75255787037</v>
+        <v>43808.77069444444</v>
       </c>
       <c r="E241" s="6" t="inlineStr"/>
       <c r="F241" s="6" t="inlineStr"/>
@@ -5575,121 +5585,139 @@
     <row r="242">
       <c r="A242" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B242" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C242" s="8" t="n">
-        <v>43809.35299768519</v>
+        <v>43809.37784722223</v>
       </c>
       <c r="D242" s="8" t="n">
-        <v>43809.75832175926</v>
-      </c>
-      <c r="E242" s="6" t="inlineStr"/>
-      <c r="F242" s="6" t="inlineStr"/>
+        <v>43809.37784722223</v>
+      </c>
+      <c r="E242" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>4.25</v>
+      </c>
       <c r="G242" s="6" t="inlineStr"/>
       <c r="H242" s="6" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B243" s="7" t="n">
         <v>43810</v>
       </c>
       <c r="C243" s="8" t="n">
-        <v>43810.34561342592</v>
+        <v>43810.37112268519</v>
       </c>
       <c r="D243" s="8" t="n">
-        <v>43810.75204861111</v>
-      </c>
-      <c r="E243" s="6" t="inlineStr"/>
-      <c r="F243" s="6" t="inlineStr"/>
+        <v>43810.37112268519</v>
+      </c>
+      <c r="E243" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>3.5</v>
+      </c>
       <c r="G243" s="6" t="inlineStr"/>
       <c r="H243" s="6" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B244" s="7" t="n">
         <v>43811</v>
       </c>
-      <c r="C244" s="8" t="inlineStr"/>
-      <c r="D244" s="8" t="inlineStr"/>
-      <c r="E244" s="6" t="inlineStr">
-        <is>
-          <t>病假</t>
-        </is>
-      </c>
-      <c r="F244" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C244" s="8" t="n">
+        <v>43811.36390046297</v>
+      </c>
+      <c r="D244" s="8" t="n">
+        <v>43811.89300925926</v>
+      </c>
+      <c r="E244" s="6" t="inlineStr"/>
+      <c r="F244" s="6" t="inlineStr"/>
       <c r="G244" s="6" t="inlineStr"/>
       <c r="H244" s="6" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B245" s="7" t="n">
         <v>43812</v>
       </c>
       <c r="C245" s="8" t="n">
-        <v>43812.3565625</v>
+        <v>43812.36509259259</v>
       </c>
       <c r="D245" s="8" t="n">
-        <v>43812.75856481482</v>
-      </c>
-      <c r="E245" s="6" t="inlineStr"/>
-      <c r="F245" s="6" t="inlineStr"/>
+        <v>43812.36509259259</v>
+      </c>
+      <c r="E245" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>2.5</v>
+      </c>
       <c r="G245" s="6" t="inlineStr"/>
       <c r="H245" s="6" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B246" s="7" t="n">
         <v>43815</v>
       </c>
-      <c r="C246" s="8" t="n">
-        <v>43815.35653935185</v>
-      </c>
-      <c r="D246" s="8" t="n">
-        <v>43815.75416666668</v>
-      </c>
-      <c r="E246" s="6" t="inlineStr"/>
-      <c r="F246" s="6" t="inlineStr"/>
+      <c r="C246" s="8" t="inlineStr"/>
+      <c r="D246" s="8" t="inlineStr"/>
+      <c r="E246" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="G246" s="6" t="inlineStr"/>
       <c r="H246" s="6" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B247" s="7" t="n">
         <v>43816</v>
       </c>
-      <c r="C247" s="8" t="n">
-        <v>43816.35844907408</v>
-      </c>
-      <c r="D247" s="8" t="n">
-        <v>43816.75498842593</v>
-      </c>
-      <c r="E247" s="6" t="inlineStr"/>
+      <c r="C247" s="8" t="inlineStr"/>
+      <c r="D247" s="8" t="inlineStr"/>
+      <c r="E247" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F247" s="6" t="inlineStr"/>
       <c r="G247" s="6" t="inlineStr"/>
       <c r="H247" s="6" t="inlineStr"/>
@@ -5697,37 +5725,43 @@
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B248" s="7" t="n">
         <v>43817</v>
       </c>
       <c r="C248" s="8" t="n">
-        <v>43817.35290509259</v>
+        <v>43817.37120370369</v>
       </c>
       <c r="D248" s="8" t="n">
-        <v>43817.75918981482</v>
-      </c>
-      <c r="E248" s="6" t="inlineStr"/>
-      <c r="F248" s="6" t="inlineStr"/>
+        <v>43817.37120370369</v>
+      </c>
+      <c r="E248" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G248" s="6" t="inlineStr"/>
       <c r="H248" s="6" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B249" s="7" t="n">
         <v>43818</v>
       </c>
       <c r="C249" s="8" t="n">
-        <v>43818.36008101852</v>
+        <v>43818.36802083333</v>
       </c>
       <c r="D249" s="8" t="n">
-        <v>43818.75858796296</v>
+        <v>43818.78046296296</v>
       </c>
       <c r="E249" s="6" t="inlineStr"/>
       <c r="F249" s="6" t="inlineStr"/>
@@ -5737,37 +5771,39 @@
     <row r="250">
       <c r="A250" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B250" s="7" t="n">
         <v>43819</v>
       </c>
-      <c r="C250" s="8" t="n">
-        <v>43819.33466435185</v>
-      </c>
-      <c r="D250" s="8" t="n">
-        <v>43819.75594907408</v>
-      </c>
-      <c r="E250" s="6" t="inlineStr"/>
-      <c r="F250" s="6" t="inlineStr"/>
+      <c r="C250" s="8" t="inlineStr"/>
+      <c r="D250" s="8" t="inlineStr"/>
+      <c r="E250" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="G250" s="6" t="inlineStr"/>
       <c r="H250" s="6" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B251" s="7" t="n">
         <v>43822</v>
       </c>
       <c r="C251" s="8" t="n">
-        <v>43822.35442129631</v>
+        <v>43822.36818287037</v>
       </c>
       <c r="D251" s="8" t="n">
-        <v>43822.76184027778</v>
+        <v>43822.78168981482</v>
       </c>
       <c r="E251" s="6" t="inlineStr"/>
       <c r="F251" s="6" t="inlineStr"/>
@@ -5777,17 +5813,17 @@
     <row r="252">
       <c r="A252" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B252" s="7" t="n">
         <v>43823</v>
       </c>
       <c r="C252" s="8" t="n">
-        <v>43823.35795138889</v>
+        <v>43823.37086805556</v>
       </c>
       <c r="D252" s="8" t="n">
-        <v>43823.76733796296</v>
+        <v>43823.75211805557</v>
       </c>
       <c r="E252" s="6" t="inlineStr"/>
       <c r="F252" s="6" t="inlineStr"/>
@@ -5797,79 +5833,87 @@
     <row r="253">
       <c r="A253" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B253" s="7" t="n">
         <v>43824</v>
       </c>
       <c r="C253" s="8" t="n">
-        <v>43824.34935185185</v>
+        <v>43824.365</v>
       </c>
       <c r="D253" s="8" t="n">
-        <v>43824.76413194443</v>
-      </c>
-      <c r="E253" s="6" t="inlineStr"/>
-      <c r="F253" s="6" t="inlineStr"/>
+        <v>43824.365</v>
+      </c>
+      <c r="E253" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G253" s="6" t="inlineStr"/>
       <c r="H253" s="6" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="6" t="inlineStr">
         <is>
-          <t>王丽梅</t>
+          <t>马文学</t>
         </is>
       </c>
       <c r="B254" s="7" t="n">
         <v>43825</v>
       </c>
-      <c r="C254" s="8" t="n">
-        <v>43825.35403935185</v>
-      </c>
-      <c r="D254" s="8" t="n">
-        <v>43825.75800925926</v>
-      </c>
+      <c r="C254" s="8" t="inlineStr"/>
+      <c r="D254" s="8" t="inlineStr"/>
       <c r="E254" s="6" t="inlineStr"/>
       <c r="F254" s="6" t="inlineStr"/>
       <c r="G254" s="6" t="inlineStr"/>
-      <c r="H254" s="6" t="inlineStr"/>
+      <c r="H254" s="6" t="inlineStr">
+        <is>
+          <t>12/26全天卡</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B255" s="7" t="n">
         <v>43801</v>
       </c>
-      <c r="C255" s="8" t="n">
-        <v>43801.35762731481</v>
-      </c>
-      <c r="D255" s="8" t="n">
-        <v>43801.75028935185</v>
-      </c>
-      <c r="E255" s="6" t="inlineStr"/>
-      <c r="F255" s="6" t="inlineStr"/>
+      <c r="C255" s="8" t="inlineStr"/>
+      <c r="D255" s="8" t="inlineStr"/>
+      <c r="E255" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>40</v>
+      </c>
       <c r="G255" s="6" t="inlineStr"/>
       <c r="H255" s="6" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B256" s="7" t="n">
         <v>43802</v>
       </c>
-      <c r="C256" s="8" t="n">
-        <v>43802.35841435185</v>
-      </c>
-      <c r="D256" s="8" t="n">
-        <v>43802.75052083333</v>
-      </c>
-      <c r="E256" s="6" t="inlineStr"/>
+      <c r="C256" s="8" t="inlineStr"/>
+      <c r="D256" s="8" t="inlineStr"/>
+      <c r="E256" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
       <c r="F256" s="6" t="inlineStr"/>
       <c r="G256" s="6" t="inlineStr"/>
       <c r="H256" s="6" t="inlineStr"/>
@@ -5877,95 +5921,77 @@
     <row r="257">
       <c r="A257" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B257" s="7" t="n">
         <v>43803</v>
       </c>
-      <c r="C257" s="8" t="n">
-        <v>43803.36689814815</v>
-      </c>
-      <c r="D257" s="8" t="n">
-        <v>43803.6275</v>
-      </c>
+      <c r="C257" s="8" t="inlineStr"/>
+      <c r="D257" s="8" t="inlineStr"/>
       <c r="E257" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
         </is>
       </c>
-      <c r="F257" s="6" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F257" s="6" t="inlineStr"/>
       <c r="G257" s="6" t="inlineStr"/>
       <c r="H257" s="6" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B258" s="7" t="n">
         <v>43804</v>
       </c>
-      <c r="C258" s="8" t="n">
-        <v>43804.35903935185</v>
-      </c>
-      <c r="D258" s="8" t="n">
-        <v>43804.47782407407</v>
-      </c>
+      <c r="C258" s="8" t="inlineStr"/>
+      <c r="D258" s="8" t="inlineStr"/>
       <c r="E258" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
         </is>
       </c>
-      <c r="F258" s="6" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="F258" s="6" t="inlineStr"/>
       <c r="G258" s="6" t="inlineStr"/>
       <c r="H258" s="6" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B259" s="7" t="n">
         <v>43805</v>
       </c>
-      <c r="C259" s="8" t="n">
-        <v>43805.36133101852</v>
-      </c>
-      <c r="D259" s="8" t="n">
-        <v>43805.70680555556</v>
-      </c>
+      <c r="C259" s="8" t="inlineStr"/>
+      <c r="D259" s="8" t="inlineStr"/>
       <c r="E259" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
         </is>
       </c>
-      <c r="F259" s="6" t="n">
-        <v>0.57</v>
-      </c>
+      <c r="F259" s="6" t="inlineStr"/>
       <c r="G259" s="6" t="inlineStr"/>
       <c r="H259" s="6" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B260" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C260" s="8" t="n">
-        <v>43808.34917824074</v>
+        <v>43808.36690972222</v>
       </c>
       <c r="D260" s="8" t="n">
-        <v>43808.69754629629</v>
+        <v>43808.36690972222</v>
       </c>
       <c r="E260" s="6" t="inlineStr">
         <is>
@@ -5973,7 +5999,7 @@
         </is>
       </c>
       <c r="F260" s="6" t="n">
-        <v>0.77</v>
+        <v>3.5</v>
       </c>
       <c r="G260" s="6" t="inlineStr"/>
       <c r="H260" s="6" t="inlineStr"/>
@@ -5981,17 +6007,17 @@
     <row r="261">
       <c r="A261" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B261" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C261" s="8" t="n">
-        <v>43809.35891203704</v>
+        <v>43809.3684375</v>
       </c>
       <c r="D261" s="8" t="n">
-        <v>43809.70605324074</v>
+        <v>43809.3684375</v>
       </c>
       <c r="E261" s="6" t="inlineStr">
         <is>
@@ -5999,7 +6025,7 @@
         </is>
       </c>
       <c r="F261" s="6" t="n">
-        <v>0.57</v>
+        <v>10.5</v>
       </c>
       <c r="G261" s="6" t="inlineStr"/>
       <c r="H261" s="6" t="inlineStr"/>
@@ -6007,85 +6033,85 @@
     <row r="262">
       <c r="A262" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B262" s="7" t="n">
         <v>43810</v>
       </c>
-      <c r="C262" s="8" t="n">
-        <v>43810.35923611111</v>
-      </c>
-      <c r="D262" s="8" t="n">
-        <v>43810.71461805556</v>
-      </c>
+      <c r="C262" s="8" t="inlineStr"/>
+      <c r="D262" s="8" t="inlineStr"/>
       <c r="E262" s="6" t="inlineStr">
         <is>
           <t>因公外出</t>
         </is>
       </c>
-      <c r="F262" s="6" t="n">
-        <v>0.35</v>
-      </c>
+      <c r="F262" s="6" t="inlineStr"/>
       <c r="G262" s="6" t="inlineStr"/>
       <c r="H262" s="6" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B263" s="7" t="n">
         <v>43811</v>
       </c>
-      <c r="C263" s="8" t="inlineStr"/>
-      <c r="D263" s="8" t="inlineStr"/>
-      <c r="E263" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F263" s="6" t="n">
-        <v>16</v>
-      </c>
+      <c r="C263" s="8" t="n">
+        <v>43811.36010416667</v>
+      </c>
+      <c r="D263" s="8" t="n">
+        <v>43811.36010416667</v>
+      </c>
+      <c r="E263" s="6" t="inlineStr"/>
+      <c r="F263" s="6" t="inlineStr"/>
       <c r="G263" s="6" t="inlineStr"/>
-      <c r="H263" s="6" t="inlineStr"/>
+      <c r="H263" s="6" t="inlineStr">
+        <is>
+          <t>12/12下班卡</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B264" s="7" t="n">
         <v>43812</v>
       </c>
-      <c r="C264" s="8" t="inlineStr"/>
-      <c r="D264" s="8" t="inlineStr"/>
-      <c r="E264" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+      <c r="C264" s="8" t="n">
+        <v>43812.77957175926</v>
+      </c>
+      <c r="D264" s="8" t="n">
+        <v>43812.77957175926</v>
+      </c>
+      <c r="E264" s="6" t="inlineStr"/>
       <c r="F264" s="6" t="inlineStr"/>
       <c r="G264" s="6" t="inlineStr"/>
-      <c r="H264" s="6" t="inlineStr"/>
+      <c r="H264" s="6" t="inlineStr">
+        <is>
+          <t>12/13上班卡</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B265" s="7" t="n">
         <v>43815</v>
       </c>
       <c r="C265" s="8" t="n">
-        <v>43815.37109953703</v>
+        <v>43815.79726851852</v>
       </c>
       <c r="D265" s="8" t="n">
-        <v>43815.62116898148</v>
+        <v>43815.79726851852</v>
       </c>
       <c r="E265" s="6" t="inlineStr">
         <is>
@@ -6093,7 +6119,7 @@
         </is>
       </c>
       <c r="F265" s="6" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G265" s="6" t="inlineStr"/>
       <c r="H265" s="6" t="inlineStr"/>
@@ -6101,87 +6127,85 @@
     <row r="266">
       <c r="A266" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B266" s="7" t="n">
         <v>43816</v>
       </c>
       <c r="C266" s="8" t="n">
-        <v>43816.35767361111</v>
+        <v>43816.3671875</v>
       </c>
       <c r="D266" s="8" t="n">
-        <v>43816.46063657408</v>
-      </c>
-      <c r="E266" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F266" s="6" t="n">
-        <v>5.45</v>
-      </c>
+        <v>43816.75938657407</v>
+      </c>
+      <c r="E266" s="6" t="inlineStr"/>
+      <c r="F266" s="6" t="inlineStr"/>
       <c r="G266" s="6" t="inlineStr"/>
       <c r="H266" s="6" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B267" s="7" t="n">
         <v>43817</v>
       </c>
       <c r="C267" s="8" t="n">
-        <v>43817.36071759259</v>
+        <v>43817.36559027778</v>
       </c>
       <c r="D267" s="8" t="n">
-        <v>43817.75177083333</v>
-      </c>
-      <c r="E267" s="6" t="inlineStr"/>
-      <c r="F267" s="6" t="inlineStr"/>
+        <v>43817.36559027778</v>
+      </c>
+      <c r="E267" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>3.5</v>
+      </c>
       <c r="G267" s="6" t="inlineStr"/>
       <c r="H267" s="6" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B268" s="7" t="n">
         <v>43818</v>
       </c>
-      <c r="C268" s="8" t="inlineStr"/>
-      <c r="D268" s="8" t="inlineStr"/>
-      <c r="E268" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F268" s="6" t="n">
-        <v>16</v>
-      </c>
+      <c r="C268" s="8" t="n">
+        <v>43818.36766203704</v>
+      </c>
+      <c r="D268" s="8" t="n">
+        <v>43818.75313657407</v>
+      </c>
+      <c r="E268" s="6" t="inlineStr"/>
+      <c r="F268" s="6" t="inlineStr"/>
       <c r="G268" s="6" t="inlineStr"/>
       <c r="H268" s="6" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B269" s="7" t="n">
         <v>43819</v>
       </c>
-      <c r="C269" s="8" t="inlineStr"/>
-      <c r="D269" s="8" t="inlineStr"/>
-      <c r="E269" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
+      <c r="C269" s="8" t="n">
+        <v>43819.3650462963</v>
+      </c>
+      <c r="D269" s="8" t="n">
+        <v>43819.80113425926</v>
+      </c>
+      <c r="E269" s="6" t="inlineStr"/>
       <c r="F269" s="6" t="inlineStr"/>
       <c r="G269" s="6" t="inlineStr"/>
       <c r="H269" s="6" t="inlineStr"/>
@@ -6189,73 +6213,67 @@
     <row r="270">
       <c r="A270" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B270" s="7" t="n">
         <v>43822</v>
       </c>
-      <c r="C270" s="8" t="inlineStr"/>
-      <c r="D270" s="8" t="inlineStr"/>
-      <c r="E270" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F270" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C270" s="8" t="n">
+        <v>43822.37287037037</v>
+      </c>
+      <c r="D270" s="8" t="n">
+        <v>43822.78616898148</v>
+      </c>
+      <c r="E270" s="6" t="inlineStr"/>
+      <c r="F270" s="6" t="inlineStr"/>
       <c r="G270" s="6" t="inlineStr"/>
       <c r="H270" s="6" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B271" s="7" t="n">
         <v>43823</v>
       </c>
-      <c r="C271" s="8" t="inlineStr"/>
-      <c r="D271" s="8" t="inlineStr"/>
-      <c r="E271" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F271" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C271" s="8" t="n">
+        <v>43823.36881944445</v>
+      </c>
+      <c r="D271" s="8" t="n">
+        <v>43823.76533564815</v>
+      </c>
+      <c r="E271" s="6" t="inlineStr"/>
+      <c r="F271" s="6" t="inlineStr"/>
       <c r="G271" s="6" t="inlineStr"/>
       <c r="H271" s="6" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B272" s="7" t="n">
         <v>43824</v>
       </c>
-      <c r="C272" s="8" t="inlineStr"/>
-      <c r="D272" s="8" t="inlineStr"/>
-      <c r="E272" s="6" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="F272" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="C272" s="8" t="n">
+        <v>43824.36384259259</v>
+      </c>
+      <c r="D272" s="8" t="n">
+        <v>43824.8079050926</v>
+      </c>
+      <c r="E272" s="6" t="inlineStr"/>
+      <c r="F272" s="6" t="inlineStr"/>
       <c r="G272" s="6" t="inlineStr"/>
       <c r="H272" s="6" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="6" t="inlineStr">
         <is>
-          <t>窦笑然</t>
+          <t>马立新</t>
         </is>
       </c>
       <c r="B273" s="7" t="n">
@@ -6263,81 +6281,69 @@
       </c>
       <c r="C273" s="8" t="inlineStr"/>
       <c r="D273" s="8" t="inlineStr"/>
-      <c r="E273" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F273" s="6" t="n">
-        <v>16</v>
-      </c>
+      <c r="E273" s="6" t="inlineStr"/>
+      <c r="F273" s="6" t="inlineStr"/>
       <c r="G273" s="6" t="inlineStr"/>
-      <c r="H273" s="6" t="inlineStr"/>
+      <c r="H273" s="6" t="inlineStr">
+        <is>
+          <t>12/26全天卡</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B274" s="7" t="n">
         <v>43801</v>
       </c>
       <c r="C274" s="8" t="n">
-        <v>43801.37679398148</v>
+        <v>43801.35962962963</v>
       </c>
       <c r="D274" s="8" t="n">
-        <v>43801.75186342592</v>
+        <v>43801.76373842593</v>
       </c>
       <c r="E274" s="6" t="inlineStr"/>
       <c r="F274" s="6" t="inlineStr"/>
-      <c r="G274" s="6" t="inlineStr">
-        <is>
-          <t>12/02-09:02</t>
-        </is>
-      </c>
+      <c r="G274" s="6" t="inlineStr"/>
       <c r="H274" s="6" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B275" s="7" t="n">
         <v>43802</v>
       </c>
       <c r="C275" s="8" t="n">
-        <v>43802.36199074074</v>
+        <v>43802.340625</v>
       </c>
       <c r="D275" s="8" t="n">
-        <v>43802.72923611111</v>
-      </c>
-      <c r="E275" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F275" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>43802.75378472222</v>
+      </c>
+      <c r="E275" s="6" t="inlineStr"/>
+      <c r="F275" s="6" t="inlineStr"/>
       <c r="G275" s="6" t="inlineStr"/>
       <c r="H275" s="6" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B276" s="7" t="n">
         <v>43803</v>
       </c>
       <c r="C276" s="8" t="n">
-        <v>43803.36438657406</v>
+        <v>43803.31581018519</v>
       </c>
       <c r="D276" s="8" t="n">
-        <v>43803.7500462963</v>
+        <v>43803.7573148148</v>
       </c>
       <c r="E276" s="6" t="inlineStr"/>
       <c r="F276" s="6" t="inlineStr"/>
@@ -6347,17 +6353,17 @@
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B277" s="7" t="n">
         <v>43804</v>
       </c>
       <c r="C277" s="8" t="n">
-        <v>43804.3612037037</v>
+        <v>43804.3656712963</v>
       </c>
       <c r="D277" s="8" t="n">
-        <v>43804.75817129629</v>
+        <v>43804.75572916667</v>
       </c>
       <c r="E277" s="6" t="inlineStr"/>
       <c r="F277" s="6" t="inlineStr"/>
@@ -6367,63 +6373,63 @@
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B278" s="7" t="n">
         <v>43805</v>
       </c>
       <c r="C278" s="8" t="n">
-        <v>43805.36613425926</v>
+        <v>43805.35733796296</v>
       </c>
       <c r="D278" s="8" t="n">
-        <v>43805.62796296295</v>
-      </c>
-      <c r="E278" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F278" s="6" t="n">
-        <v>2.5</v>
-      </c>
+        <v>43805.75594907408</v>
+      </c>
+      <c r="E278" s="6" t="inlineStr"/>
+      <c r="F278" s="6" t="inlineStr"/>
       <c r="G278" s="6" t="inlineStr"/>
       <c r="H278" s="6" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B279" s="7" t="n">
         <v>43808</v>
       </c>
       <c r="C279" s="8" t="n">
-        <v>43808.35853009259</v>
+        <v>43808.35244212963</v>
       </c>
       <c r="D279" s="8" t="n">
-        <v>43808.7504976852</v>
-      </c>
-      <c r="E279" s="6" t="inlineStr"/>
-      <c r="F279" s="6" t="inlineStr"/>
+        <v>43808.53394675926</v>
+      </c>
+      <c r="E279" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="G279" s="6" t="inlineStr"/>
       <c r="H279" s="6" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B280" s="7" t="n">
         <v>43809</v>
       </c>
       <c r="C280" s="8" t="n">
-        <v>43809.36400462963</v>
+        <v>43809.36663194445</v>
       </c>
       <c r="D280" s="8" t="n">
-        <v>43809.75016203704</v>
+        <v>43809.75671296296</v>
       </c>
       <c r="E280" s="6" t="inlineStr"/>
       <c r="F280" s="6" t="inlineStr"/>
@@ -6433,17 +6439,17 @@
     <row r="281">
       <c r="A281" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B281" s="7" t="n">
         <v>43810</v>
       </c>
       <c r="C281" s="8" t="n">
-        <v>43810.36119212963</v>
+        <v>43810.3571875</v>
       </c>
       <c r="D281" s="8" t="n">
-        <v>43810.75254629629</v>
+        <v>43810.75378472222</v>
       </c>
       <c r="E281" s="6" t="inlineStr"/>
       <c r="F281" s="6" t="inlineStr"/>
@@ -6453,17 +6459,17 @@
     <row r="282">
       <c r="A282" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B282" s="7" t="n">
         <v>43811</v>
       </c>
       <c r="C282" s="8" t="n">
-        <v>43811.35776620371</v>
+        <v>43811.36164351852</v>
       </c>
       <c r="D282" s="8" t="n">
-        <v>43811.75149305557</v>
+        <v>43811.75479166668</v>
       </c>
       <c r="E282" s="6" t="inlineStr"/>
       <c r="F282" s="6" t="inlineStr"/>
@@ -6473,63 +6479,63 @@
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B283" s="7" t="n">
         <v>43812</v>
       </c>
       <c r="C283" s="8" t="n">
-        <v>43812.36409722222</v>
+        <v>43812.36357638889</v>
       </c>
       <c r="D283" s="8" t="n">
-        <v>43812.75347222222</v>
-      </c>
-      <c r="E283" s="6" t="inlineStr"/>
-      <c r="F283" s="6" t="inlineStr"/>
+        <v>43812.53081018518</v>
+      </c>
+      <c r="E283" s="6" t="inlineStr">
+        <is>
+          <t>因公外出</t>
+        </is>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="G283" s="6" t="inlineStr"/>
       <c r="H283" s="6" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B284" s="7" t="n">
         <v>43815</v>
       </c>
       <c r="C284" s="8" t="n">
-        <v>43815.63975694445</v>
+        <v>43815.35957175926</v>
       </c>
       <c r="D284" s="8" t="n">
-        <v>43815.75253472223</v>
-      </c>
-      <c r="E284" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F284" s="6" t="n">
-        <v>5.33</v>
-      </c>
+        <v>43815.86138888889</v>
+      </c>
+      <c r="E284" s="6" t="inlineStr"/>
+      <c r="F284" s="6" t="inlineStr"/>
       <c r="G284" s="6" t="inlineStr"/>
       <c r="H284" s="6" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B285" s="7" t="n">
         <v>43816</v>
       </c>
       <c r="C285" s="8" t="n">
-        <v>43816.36207175926</v>
+        <v>43816.36934027778</v>
       </c>
       <c r="D285" s="8" t="n">
-        <v>43816.75369212963</v>
+        <v>43816.75625</v>
       </c>
       <c r="E285" s="6" t="inlineStr"/>
       <c r="F285" s="6" t="inlineStr"/>
@@ -6539,17 +6545,17 @@
     <row r="286">
       <c r="A286" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B286" s="7" t="n">
         <v>43817</v>
       </c>
       <c r="C286" s="8" t="n">
-        <v>43817.36298611111</v>
+        <v>43817.35620370369</v>
       </c>
       <c r="D286" s="8" t="n">
-        <v>43817.75318287037</v>
+        <v>43817.83942129631</v>
       </c>
       <c r="E286" s="6" t="inlineStr"/>
       <c r="F286" s="6" t="inlineStr"/>
@@ -6559,17 +6565,17 @@
     <row r="287">
       <c r="A287" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B287" s="7" t="n">
         <v>43818</v>
       </c>
       <c r="C287" s="8" t="n">
-        <v>43818.36386574074</v>
+        <v>43818.35767361111</v>
       </c>
       <c r="D287" s="8" t="n">
-        <v>43818.75262731482</v>
+        <v>43818.80256944443</v>
       </c>
       <c r="E287" s="6" t="inlineStr"/>
       <c r="F287" s="6" t="inlineStr"/>
@@ -6579,17 +6585,17 @@
     <row r="288">
       <c r="A288" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B288" s="7" t="n">
         <v>43819</v>
       </c>
       <c r="C288" s="8" t="n">
-        <v>43819.35944444445</v>
+        <v>43819.36383101852</v>
       </c>
       <c r="D288" s="8" t="n">
-        <v>43819.75306712963</v>
+        <v>43819.78409722223</v>
       </c>
       <c r="E288" s="6" t="inlineStr"/>
       <c r="F288" s="6" t="inlineStr"/>
@@ -6599,17 +6605,17 @@
     <row r="289">
       <c r="A289" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B289" s="7" t="n">
         <v>43822</v>
       </c>
       <c r="C289" s="8" t="n">
-        <v>43822.36327546297</v>
+        <v>43822.35178240741</v>
       </c>
       <c r="D289" s="8" t="n">
-        <v>43822.75484953705</v>
+        <v>43822.76081018519</v>
       </c>
       <c r="E289" s="6" t="inlineStr"/>
       <c r="F289" s="6" t="inlineStr"/>
@@ -6619,17 +6625,17 @@
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B290" s="7" t="n">
         <v>43823</v>
       </c>
       <c r="C290" s="8" t="n">
-        <v>43823.36633101852</v>
+        <v>43823.35059027778</v>
       </c>
       <c r="D290" s="8" t="n">
-        <v>43823.8269212963</v>
+        <v>43823.78519675926</v>
       </c>
       <c r="E290" s="6" t="inlineStr"/>
       <c r="F290" s="6" t="inlineStr"/>
@@ -6639,33 +6645,27 @@
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B291" s="7" t="n">
         <v>43824</v>
       </c>
       <c r="C291" s="8" t="n">
-        <v>43824.41489583333</v>
+        <v>43824.32087962963</v>
       </c>
       <c r="D291" s="8" t="n">
-        <v>43824.68850694445</v>
-      </c>
-      <c r="E291" s="6" t="inlineStr">
-        <is>
-          <t>因公外出</t>
-        </is>
-      </c>
-      <c r="F291" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>43824.75653935185</v>
+      </c>
+      <c r="E291" s="6" t="inlineStr"/>
+      <c r="F291" s="6" t="inlineStr"/>
       <c r="G291" s="6" t="inlineStr"/>
       <c r="H291" s="6" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>张善海</t>
+          <t>高展</t>
         </is>
       </c>
       <c r="B292" s="7" t="n">
